--- a/python/excel_pandas/1/成绩单.xlsx
+++ b/python/excel_pandas/1/成绩单.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\贺浩\python\pandas学习\python\excel_pandas\1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71FFD2F-CE9F-4938-B5D9-91B0CF9902BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="377" yWindow="377" windowWidth="16457" windowHeight="9549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="358">
   <si>
     <t>姓名</t>
   </si>
@@ -58,1043 +59,1082 @@
     <t>生物</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>科目总平均</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>A22</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>A24</t>
+  </si>
+  <si>
+    <t>A25</t>
+  </si>
+  <si>
+    <t>A26</t>
+  </si>
+  <si>
+    <t>A27</t>
+  </si>
+  <si>
+    <t>A28</t>
+  </si>
+  <si>
+    <t>A29</t>
+  </si>
+  <si>
+    <t>A30</t>
+  </si>
+  <si>
+    <t>A31</t>
+  </si>
+  <si>
+    <t>A32</t>
+  </si>
+  <si>
+    <t>A33</t>
+  </si>
+  <si>
+    <t>A34</t>
+  </si>
+  <si>
+    <t>A35</t>
+  </si>
+  <si>
+    <t>A36</t>
+  </si>
+  <si>
+    <t>A37</t>
+  </si>
+  <si>
+    <t>A38</t>
+  </si>
+  <si>
+    <t>A39</t>
+  </si>
+  <si>
+    <t>A40</t>
+  </si>
+  <si>
+    <t>A41</t>
+  </si>
+  <si>
+    <t>A42</t>
+  </si>
+  <si>
+    <t>A43</t>
+  </si>
+  <si>
+    <t>A44</t>
+  </si>
+  <si>
+    <t>A45</t>
+  </si>
+  <si>
+    <t>A46</t>
+  </si>
+  <si>
+    <t>A47</t>
+  </si>
+  <si>
+    <t>A48</t>
+  </si>
+  <si>
+    <t>A49</t>
+  </si>
+  <si>
+    <t>A50</t>
+  </si>
+  <si>
+    <t>A51</t>
+  </si>
+  <si>
+    <t>A52</t>
+  </si>
+  <si>
+    <t>A53</t>
+  </si>
+  <si>
+    <t>A54</t>
+  </si>
+  <si>
+    <t>A55</t>
+  </si>
+  <si>
+    <t>A56</t>
+  </si>
+  <si>
+    <t>A57</t>
+  </si>
+  <si>
+    <t>A58</t>
+  </si>
+  <si>
+    <t>A59</t>
+  </si>
+  <si>
+    <t>A60</t>
+  </si>
+  <si>
+    <t>A61</t>
+  </si>
+  <si>
+    <t>A62</t>
+  </si>
+  <si>
+    <t>A63</t>
+  </si>
+  <si>
+    <t>A64</t>
+  </si>
+  <si>
+    <t>A65</t>
+  </si>
+  <si>
+    <t>A66</t>
+  </si>
+  <si>
+    <t>A67</t>
+  </si>
+  <si>
+    <t>A68</t>
+  </si>
+  <si>
+    <t>A69</t>
+  </si>
+  <si>
+    <t>A70</t>
+  </si>
+  <si>
+    <t>A71</t>
+  </si>
+  <si>
+    <t>A72</t>
+  </si>
+  <si>
+    <t>A73</t>
+  </si>
+  <si>
+    <t>A74</t>
+  </si>
+  <si>
+    <t>A75</t>
+  </si>
+  <si>
+    <t>A76</t>
+  </si>
+  <si>
+    <t>A77</t>
+  </si>
+  <si>
+    <t>A78</t>
+  </si>
+  <si>
+    <t>A79</t>
+  </si>
+  <si>
+    <t>A80</t>
+  </si>
+  <si>
+    <t>A81</t>
+  </si>
+  <si>
+    <t>A82</t>
+  </si>
+  <si>
+    <t>A83</t>
+  </si>
+  <si>
+    <t>A84</t>
+  </si>
+  <si>
+    <t>A85</t>
+  </si>
+  <si>
+    <t>A86</t>
+  </si>
+  <si>
+    <t>A87</t>
+  </si>
+  <si>
+    <t>A88</t>
+  </si>
+  <si>
+    <t>A89</t>
+  </si>
+  <si>
+    <t>A90</t>
+  </si>
+  <si>
+    <t>A91</t>
+  </si>
+  <si>
+    <t>A92</t>
+  </si>
+  <si>
+    <t>A93</t>
+  </si>
+  <si>
+    <t>A94</t>
+  </si>
+  <si>
+    <t>A95</t>
+  </si>
+  <si>
+    <t>A96</t>
+  </si>
+  <si>
+    <t>A97</t>
+  </si>
+  <si>
+    <t>A98</t>
+  </si>
+  <si>
+    <t>A99</t>
+  </si>
+  <si>
+    <t>A100</t>
+  </si>
+  <si>
+    <t>A101</t>
+  </si>
+  <si>
+    <t>A102</t>
+  </si>
+  <si>
+    <t>A103</t>
+  </si>
+  <si>
+    <t>A104</t>
+  </si>
+  <si>
+    <t>A105</t>
+  </si>
+  <si>
+    <t>A106</t>
+  </si>
+  <si>
+    <t>A107</t>
+  </si>
+  <si>
+    <t>A108</t>
+  </si>
+  <si>
+    <t>A109</t>
+  </si>
+  <si>
+    <t>A110</t>
+  </si>
+  <si>
+    <t>A111</t>
+  </si>
+  <si>
+    <t>A112</t>
+  </si>
+  <si>
+    <t>A113</t>
+  </si>
+  <si>
+    <t>A114</t>
+  </si>
+  <si>
+    <t>A115</t>
+  </si>
+  <si>
+    <t>A116</t>
+  </si>
+  <si>
+    <t>A117</t>
+  </si>
+  <si>
+    <t>A118</t>
+  </si>
+  <si>
+    <t>A119</t>
+  </si>
+  <si>
+    <t>A120</t>
+  </si>
+  <si>
+    <t>A121</t>
+  </si>
+  <si>
+    <t>A122</t>
+  </si>
+  <si>
+    <t>A123</t>
+  </si>
+  <si>
+    <t>A124</t>
+  </si>
+  <si>
+    <t>A125</t>
+  </si>
+  <si>
+    <t>A126</t>
+  </si>
+  <si>
+    <t>A127</t>
+  </si>
+  <si>
+    <t>A128</t>
+  </si>
+  <si>
+    <t>A129</t>
+  </si>
+  <si>
+    <t>A130</t>
+  </si>
+  <si>
+    <t>A131</t>
+  </si>
+  <si>
+    <t>A132</t>
+  </si>
+  <si>
+    <t>A133</t>
+  </si>
+  <si>
+    <t>A134</t>
+  </si>
+  <si>
+    <t>A135</t>
+  </si>
+  <si>
+    <t>A136</t>
+  </si>
+  <si>
+    <t>A137</t>
+  </si>
+  <si>
+    <t>A138</t>
+  </si>
+  <si>
+    <t>A139</t>
+  </si>
+  <si>
+    <t>A140</t>
+  </si>
+  <si>
+    <t>A141</t>
+  </si>
+  <si>
+    <t>A142</t>
+  </si>
+  <si>
+    <t>A143</t>
+  </si>
+  <si>
+    <t>A144</t>
+  </si>
+  <si>
+    <t>A145</t>
+  </si>
+  <si>
+    <t>A146</t>
+  </si>
+  <si>
+    <t>A147</t>
+  </si>
+  <si>
+    <t>A148</t>
+  </si>
+  <si>
+    <t>A149</t>
+  </si>
+  <si>
+    <t>A150</t>
+  </si>
+  <si>
+    <t>A151</t>
+  </si>
+  <si>
+    <t>A152</t>
+  </si>
+  <si>
+    <t>A153</t>
+  </si>
+  <si>
+    <t>A154</t>
+  </si>
+  <si>
+    <t>A155</t>
+  </si>
+  <si>
+    <t>A156</t>
+  </si>
+  <si>
+    <t>A157</t>
+  </si>
+  <si>
+    <t>A158</t>
+  </si>
+  <si>
+    <t>A159</t>
+  </si>
+  <si>
+    <t>A160</t>
+  </si>
+  <si>
+    <t>A161</t>
+  </si>
+  <si>
+    <t>A162</t>
+  </si>
+  <si>
+    <t>A163</t>
+  </si>
+  <si>
+    <t>A164</t>
+  </si>
+  <si>
+    <t>A165</t>
+  </si>
+  <si>
+    <t>A166</t>
+  </si>
+  <si>
+    <t>A167</t>
+  </si>
+  <si>
+    <t>A168</t>
+  </si>
+  <si>
+    <t>A169</t>
+  </si>
+  <si>
+    <t>A170</t>
+  </si>
+  <si>
+    <t>A171</t>
+  </si>
+  <si>
+    <t>A172</t>
+  </si>
+  <si>
+    <t>A173</t>
+  </si>
+  <si>
+    <t>A174</t>
+  </si>
+  <si>
+    <t>A175</t>
+  </si>
+  <si>
+    <t>A176</t>
+  </si>
+  <si>
+    <t>A177</t>
+  </si>
+  <si>
+    <t>A178</t>
+  </si>
+  <si>
+    <t>A179</t>
+  </si>
+  <si>
+    <t>A180</t>
+  </si>
+  <si>
+    <t>A181</t>
+  </si>
+  <si>
+    <t>A182</t>
+  </si>
+  <si>
+    <t>A183</t>
+  </si>
+  <si>
+    <t>A184</t>
+  </si>
+  <si>
+    <t>A185</t>
+  </si>
+  <si>
+    <t>A186</t>
+  </si>
+  <si>
+    <t>A187</t>
+  </si>
+  <si>
+    <t>A188</t>
+  </si>
+  <si>
+    <t>A189</t>
+  </si>
+  <si>
+    <t>A190</t>
+  </si>
+  <si>
+    <t>A191</t>
+  </si>
+  <si>
+    <t>A192</t>
+  </si>
+  <si>
+    <t>A193</t>
+  </si>
+  <si>
+    <t>A194</t>
+  </si>
+  <si>
+    <t>A195</t>
+  </si>
+  <si>
+    <t>A196</t>
+  </si>
+  <si>
+    <t>A197</t>
+  </si>
+  <si>
+    <t>A198</t>
+  </si>
+  <si>
+    <t>A199</t>
+  </si>
+  <si>
+    <t>A200</t>
+  </si>
+  <si>
+    <t>A201</t>
+  </si>
+  <si>
+    <t>A202</t>
+  </si>
+  <si>
+    <t>A203</t>
+  </si>
+  <si>
+    <t>A204</t>
+  </si>
+  <si>
+    <t>A205</t>
+  </si>
+  <si>
+    <t>A206</t>
+  </si>
+  <si>
+    <t>A207</t>
+  </si>
+  <si>
+    <t>A208</t>
+  </si>
+  <si>
+    <t>A209</t>
+  </si>
+  <si>
+    <t>A210</t>
+  </si>
+  <si>
+    <t>A211</t>
+  </si>
+  <si>
+    <t>A212</t>
+  </si>
+  <si>
+    <t>A213</t>
+  </si>
+  <si>
+    <t>A214</t>
+  </si>
+  <si>
+    <t>A215</t>
+  </si>
+  <si>
+    <t>A216</t>
+  </si>
+  <si>
+    <t>A217</t>
+  </si>
+  <si>
+    <t>A218</t>
+  </si>
+  <si>
+    <t>A219</t>
+  </si>
+  <si>
+    <t>A220</t>
+  </si>
+  <si>
+    <t>A221</t>
+  </si>
+  <si>
+    <t>A222</t>
+  </si>
+  <si>
+    <t>A223</t>
+  </si>
+  <si>
+    <t>A224</t>
+  </si>
+  <si>
+    <t>A225</t>
+  </si>
+  <si>
+    <t>A226</t>
+  </si>
+  <si>
+    <t>A227</t>
+  </si>
+  <si>
+    <t>A228</t>
+  </si>
+  <si>
+    <t>A229</t>
+  </si>
+  <si>
+    <t>A230</t>
+  </si>
+  <si>
+    <t>A231</t>
+  </si>
+  <si>
+    <t>A232</t>
+  </si>
+  <si>
+    <t>A233</t>
+  </si>
+  <si>
+    <t>A234</t>
+  </si>
+  <si>
+    <t>A235</t>
+  </si>
+  <si>
+    <t>A236</t>
+  </si>
+  <si>
+    <t>A237</t>
+  </si>
+  <si>
+    <t>A238</t>
+  </si>
+  <si>
+    <t>A239</t>
+  </si>
+  <si>
+    <t>A240</t>
+  </si>
+  <si>
+    <t>A241</t>
+  </si>
+  <si>
+    <t>A242</t>
+  </si>
+  <si>
+    <t>A243</t>
+  </si>
+  <si>
+    <t>A244</t>
+  </si>
+  <si>
+    <t>A245</t>
+  </si>
+  <si>
+    <t>A246</t>
+  </si>
+  <si>
+    <t>A247</t>
+  </si>
+  <si>
+    <t>A248</t>
+  </si>
+  <si>
+    <t>A249</t>
+  </si>
+  <si>
+    <t>A250</t>
+  </si>
+  <si>
+    <t>A251</t>
+  </si>
+  <si>
+    <t>A252</t>
+  </si>
+  <si>
+    <t>A253</t>
+  </si>
+  <si>
+    <t>A254</t>
+  </si>
+  <si>
+    <t>A255</t>
+  </si>
+  <si>
+    <t>A256</t>
+  </si>
+  <si>
+    <t>A257</t>
+  </si>
+  <si>
+    <t>A258</t>
+  </si>
+  <si>
+    <t>A259</t>
+  </si>
+  <si>
+    <t>A260</t>
+  </si>
+  <si>
+    <t>A261</t>
+  </si>
+  <si>
+    <t>A262</t>
+  </si>
+  <si>
+    <t>A263</t>
+  </si>
+  <si>
+    <t>A264</t>
+  </si>
+  <si>
+    <t>A265</t>
+  </si>
+  <si>
+    <t>A266</t>
+  </si>
+  <si>
+    <t>A267</t>
+  </si>
+  <si>
+    <t>A268</t>
+  </si>
+  <si>
+    <t>A269</t>
+  </si>
+  <si>
+    <t>A270</t>
+  </si>
+  <si>
+    <t>A271</t>
+  </si>
+  <si>
+    <t>A272</t>
+  </si>
+  <si>
+    <t>A273</t>
+  </si>
+  <si>
+    <t>A274</t>
+  </si>
+  <si>
+    <t>A275</t>
+  </si>
+  <si>
+    <t>A276</t>
+  </si>
+  <si>
+    <t>A277</t>
+  </si>
+  <si>
+    <t>A278</t>
+  </si>
+  <si>
+    <t>A279</t>
+  </si>
+  <si>
+    <t>A280</t>
+  </si>
+  <si>
+    <t>A281</t>
+  </si>
+  <si>
+    <t>A282</t>
+  </si>
+  <si>
+    <t>A283</t>
+  </si>
+  <si>
+    <t>A284</t>
+  </si>
+  <si>
+    <t>A285</t>
+  </si>
+  <si>
+    <t>A286</t>
+  </si>
+  <si>
+    <t>A287</t>
+  </si>
+  <si>
+    <t>A288</t>
+  </si>
+  <si>
+    <t>A289</t>
+  </si>
+  <si>
+    <t>A290</t>
+  </si>
+  <si>
+    <t>A291</t>
+  </si>
+  <si>
+    <t>A292</t>
+  </si>
+  <si>
+    <t>A293</t>
+  </si>
+  <si>
+    <t>A294</t>
+  </si>
+  <si>
+    <t>A295</t>
+  </si>
+  <si>
+    <t>A296</t>
+  </si>
+  <si>
+    <t>A297</t>
+  </si>
+  <si>
+    <t>A298</t>
+  </si>
+  <si>
+    <t>A299</t>
+  </si>
+  <si>
+    <t>A300</t>
+  </si>
+  <si>
+    <t>A301</t>
+  </si>
+  <si>
+    <t>A302</t>
+  </si>
+  <si>
+    <t>A303</t>
+  </si>
+  <si>
+    <t>A304</t>
+  </si>
+  <si>
+    <t>A305</t>
+  </si>
+  <si>
+    <t>A306</t>
+  </si>
+  <si>
+    <t>A307</t>
+  </si>
+  <si>
+    <t>A308</t>
+  </si>
+  <si>
+    <t>A309</t>
+  </si>
+  <si>
+    <t>A310</t>
+  </si>
+  <si>
+    <t>A311</t>
+  </si>
+  <si>
+    <t>A312</t>
+  </si>
+  <si>
+    <t>A313</t>
+  </si>
+  <si>
+    <t>A314</t>
+  </si>
+  <si>
+    <t>A315</t>
+  </si>
+  <si>
+    <t>A316</t>
+  </si>
+  <si>
+    <t>A317</t>
+  </si>
+  <si>
+    <t>A318</t>
+  </si>
+  <si>
+    <t>A319</t>
+  </si>
+  <si>
+    <t>A320</t>
+  </si>
+  <si>
+    <t>A321</t>
+  </si>
+  <si>
+    <t>A322</t>
+  </si>
+  <si>
+    <t>A323</t>
+  </si>
+  <si>
+    <t>A324</t>
+  </si>
+  <si>
+    <t>A325</t>
+  </si>
+  <si>
+    <t>A326</t>
+  </si>
+  <si>
+    <t>A327</t>
+  </si>
+  <si>
+    <t>A328</t>
+  </si>
+  <si>
+    <t>A329</t>
+  </si>
+  <si>
+    <t>A330</t>
+  </si>
+  <si>
+    <t>A331</t>
+  </si>
+  <si>
+    <t>A332</t>
+  </si>
+  <si>
+    <t>行标签</t>
+  </si>
+  <si>
+    <t>平均值项:语文</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>苦短</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>班级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>科目总平均</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>科目总平均</t>
-  </si>
-  <si>
-    <t>行标签</t>
-  </si>
-  <si>
-    <t>总计</t>
-  </si>
-  <si>
-    <t>平均值项:语文</t>
-  </si>
-  <si>
-    <t>A1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>A14</t>
-  </si>
-  <si>
-    <t>A15</t>
-  </si>
-  <si>
-    <t>A16</t>
-  </si>
-  <si>
-    <t>A17</t>
-  </si>
-  <si>
-    <t>A18</t>
-  </si>
-  <si>
-    <t>A19</t>
-  </si>
-  <si>
-    <t>A20</t>
-  </si>
-  <si>
-    <t>A21</t>
-  </si>
-  <si>
-    <t>A22</t>
-  </si>
-  <si>
-    <t>A23</t>
-  </si>
-  <si>
-    <t>A24</t>
-  </si>
-  <si>
-    <t>A25</t>
-  </si>
-  <si>
-    <t>A26</t>
-  </si>
-  <si>
-    <t>A27</t>
-  </si>
-  <si>
-    <t>A28</t>
-  </si>
-  <si>
-    <t>A29</t>
-  </si>
-  <si>
-    <t>A30</t>
-  </si>
-  <si>
-    <t>A31</t>
-  </si>
-  <si>
-    <t>A32</t>
-  </si>
-  <si>
-    <t>A33</t>
-  </si>
-  <si>
-    <t>A34</t>
-  </si>
-  <si>
-    <t>A35</t>
-  </si>
-  <si>
-    <t>A36</t>
-  </si>
-  <si>
-    <t>A37</t>
-  </si>
-  <si>
-    <t>A38</t>
-  </si>
-  <si>
-    <t>A39</t>
-  </si>
-  <si>
-    <t>A40</t>
-  </si>
-  <si>
-    <t>A41</t>
-  </si>
-  <si>
-    <t>A42</t>
-  </si>
-  <si>
-    <t>A43</t>
-  </si>
-  <si>
-    <t>A44</t>
-  </si>
-  <si>
-    <t>A45</t>
-  </si>
-  <si>
-    <t>A46</t>
-  </si>
-  <si>
-    <t>A47</t>
-  </si>
-  <si>
-    <t>A48</t>
-  </si>
-  <si>
-    <t>A49</t>
-  </si>
-  <si>
-    <t>A50</t>
-  </si>
-  <si>
-    <t>A51</t>
-  </si>
-  <si>
-    <t>A52</t>
-  </si>
-  <si>
-    <t>A53</t>
-  </si>
-  <si>
-    <t>A54</t>
-  </si>
-  <si>
-    <t>A55</t>
-  </si>
-  <si>
-    <t>A56</t>
-  </si>
-  <si>
-    <t>A57</t>
-  </si>
-  <si>
-    <t>A58</t>
-  </si>
-  <si>
-    <t>A59</t>
-  </si>
-  <si>
-    <t>A60</t>
-  </si>
-  <si>
-    <t>A61</t>
-  </si>
-  <si>
-    <t>A62</t>
-  </si>
-  <si>
-    <t>A63</t>
-  </si>
-  <si>
-    <t>A64</t>
-  </si>
-  <si>
-    <t>A65</t>
-  </si>
-  <si>
-    <t>A66</t>
-  </si>
-  <si>
-    <t>A67</t>
-  </si>
-  <si>
-    <t>A68</t>
-  </si>
-  <si>
-    <t>A69</t>
-  </si>
-  <si>
-    <t>A70</t>
-  </si>
-  <si>
-    <t>A71</t>
-  </si>
-  <si>
-    <t>A72</t>
-  </si>
-  <si>
-    <t>A73</t>
-  </si>
-  <si>
-    <t>A74</t>
-  </si>
-  <si>
-    <t>A75</t>
-  </si>
-  <si>
-    <t>A76</t>
-  </si>
-  <si>
-    <t>A77</t>
-  </si>
-  <si>
-    <t>A78</t>
-  </si>
-  <si>
-    <t>A79</t>
-  </si>
-  <si>
-    <t>A80</t>
-  </si>
-  <si>
-    <t>A81</t>
-  </si>
-  <si>
-    <t>A82</t>
-  </si>
-  <si>
-    <t>A83</t>
-  </si>
-  <si>
-    <t>A84</t>
-  </si>
-  <si>
-    <t>A85</t>
-  </si>
-  <si>
-    <t>A86</t>
-  </si>
-  <si>
-    <t>A87</t>
-  </si>
-  <si>
-    <t>A88</t>
-  </si>
-  <si>
-    <t>A89</t>
-  </si>
-  <si>
-    <t>A90</t>
-  </si>
-  <si>
-    <t>A91</t>
-  </si>
-  <si>
-    <t>A92</t>
-  </si>
-  <si>
-    <t>A93</t>
-  </si>
-  <si>
-    <t>A94</t>
-  </si>
-  <si>
-    <t>A95</t>
-  </si>
-  <si>
-    <t>A96</t>
-  </si>
-  <si>
-    <t>A97</t>
-  </si>
-  <si>
-    <t>A98</t>
-  </si>
-  <si>
-    <t>A99</t>
-  </si>
-  <si>
-    <t>A100</t>
-  </si>
-  <si>
-    <t>A101</t>
-  </si>
-  <si>
-    <t>A102</t>
-  </si>
-  <si>
-    <t>A103</t>
-  </si>
-  <si>
-    <t>A104</t>
-  </si>
-  <si>
-    <t>A105</t>
-  </si>
-  <si>
-    <t>A106</t>
-  </si>
-  <si>
-    <t>A107</t>
-  </si>
-  <si>
-    <t>A108</t>
-  </si>
-  <si>
-    <t>A109</t>
-  </si>
-  <si>
-    <t>A110</t>
-  </si>
-  <si>
-    <t>A111</t>
-  </si>
-  <si>
-    <t>A112</t>
-  </si>
-  <si>
-    <t>A113</t>
-  </si>
-  <si>
-    <t>A114</t>
-  </si>
-  <si>
-    <t>A115</t>
-  </si>
-  <si>
-    <t>A116</t>
-  </si>
-  <si>
-    <t>A117</t>
-  </si>
-  <si>
-    <t>A118</t>
-  </si>
-  <si>
-    <t>A119</t>
-  </si>
-  <si>
-    <t>A120</t>
-  </si>
-  <si>
-    <t>A121</t>
-  </si>
-  <si>
-    <t>A122</t>
-  </si>
-  <si>
-    <t>A123</t>
-  </si>
-  <si>
-    <t>A124</t>
-  </si>
-  <si>
-    <t>A125</t>
-  </si>
-  <si>
-    <t>A126</t>
-  </si>
-  <si>
-    <t>A127</t>
-  </si>
-  <si>
-    <t>A128</t>
-  </si>
-  <si>
-    <t>A129</t>
-  </si>
-  <si>
-    <t>A130</t>
-  </si>
-  <si>
-    <t>A131</t>
-  </si>
-  <si>
-    <t>A132</t>
-  </si>
-  <si>
-    <t>A133</t>
-  </si>
-  <si>
-    <t>A134</t>
-  </si>
-  <si>
-    <t>A135</t>
-  </si>
-  <si>
-    <t>A136</t>
-  </si>
-  <si>
-    <t>A137</t>
-  </si>
-  <si>
-    <t>A138</t>
-  </si>
-  <si>
-    <t>A139</t>
-  </si>
-  <si>
-    <t>A140</t>
-  </si>
-  <si>
-    <t>A141</t>
-  </si>
-  <si>
-    <t>A142</t>
-  </si>
-  <si>
-    <t>A143</t>
-  </si>
-  <si>
-    <t>A144</t>
-  </si>
-  <si>
-    <t>A145</t>
-  </si>
-  <si>
-    <t>A146</t>
-  </si>
-  <si>
-    <t>A147</t>
-  </si>
-  <si>
-    <t>A148</t>
-  </si>
-  <si>
-    <t>A149</t>
-  </si>
-  <si>
-    <t>A150</t>
-  </si>
-  <si>
-    <t>A151</t>
-  </si>
-  <si>
-    <t>A152</t>
-  </si>
-  <si>
-    <t>A153</t>
-  </si>
-  <si>
-    <t>A154</t>
-  </si>
-  <si>
-    <t>A155</t>
-  </si>
-  <si>
-    <t>A156</t>
-  </si>
-  <si>
-    <t>A157</t>
-  </si>
-  <si>
-    <t>A158</t>
-  </si>
-  <si>
-    <t>A159</t>
-  </si>
-  <si>
-    <t>A160</t>
-  </si>
-  <si>
-    <t>A161</t>
-  </si>
-  <si>
-    <t>A162</t>
-  </si>
-  <si>
-    <t>A163</t>
-  </si>
-  <si>
-    <t>A164</t>
-  </si>
-  <si>
-    <t>A165</t>
-  </si>
-  <si>
-    <t>A166</t>
-  </si>
-  <si>
-    <t>A167</t>
-  </si>
-  <si>
-    <t>A168</t>
-  </si>
-  <si>
-    <t>A169</t>
-  </si>
-  <si>
-    <t>A170</t>
-  </si>
-  <si>
-    <t>A171</t>
-  </si>
-  <si>
-    <t>A172</t>
-  </si>
-  <si>
-    <t>A173</t>
-  </si>
-  <si>
-    <t>A174</t>
-  </si>
-  <si>
-    <t>A175</t>
-  </si>
-  <si>
-    <t>A176</t>
-  </si>
-  <si>
-    <t>A177</t>
-  </si>
-  <si>
-    <t>A178</t>
-  </si>
-  <si>
-    <t>A179</t>
-  </si>
-  <si>
-    <t>A180</t>
-  </si>
-  <si>
-    <t>A181</t>
-  </si>
-  <si>
-    <t>A182</t>
-  </si>
-  <si>
-    <t>A183</t>
-  </si>
-  <si>
-    <t>A184</t>
-  </si>
-  <si>
-    <t>A185</t>
-  </si>
-  <si>
-    <t>A186</t>
-  </si>
-  <si>
-    <t>A187</t>
-  </si>
-  <si>
-    <t>A188</t>
-  </si>
-  <si>
-    <t>A189</t>
-  </si>
-  <si>
-    <t>A190</t>
-  </si>
-  <si>
-    <t>A191</t>
-  </si>
-  <si>
-    <t>A192</t>
-  </si>
-  <si>
-    <t>A193</t>
-  </si>
-  <si>
-    <t>A194</t>
-  </si>
-  <si>
-    <t>A195</t>
-  </si>
-  <si>
-    <t>A196</t>
-  </si>
-  <si>
-    <t>A197</t>
-  </si>
-  <si>
-    <t>A198</t>
-  </si>
-  <si>
-    <t>A199</t>
-  </si>
-  <si>
-    <t>A200</t>
-  </si>
-  <si>
-    <t>A201</t>
-  </si>
-  <si>
-    <t>A202</t>
-  </si>
-  <si>
-    <t>A203</t>
-  </si>
-  <si>
-    <t>A204</t>
-  </si>
-  <si>
-    <t>A205</t>
-  </si>
-  <si>
-    <t>A206</t>
-  </si>
-  <si>
-    <t>A207</t>
-  </si>
-  <si>
-    <t>A208</t>
-  </si>
-  <si>
-    <t>A209</t>
-  </si>
-  <si>
-    <t>A210</t>
-  </si>
-  <si>
-    <t>A211</t>
-  </si>
-  <si>
-    <t>A212</t>
-  </si>
-  <si>
-    <t>A213</t>
-  </si>
-  <si>
-    <t>A214</t>
-  </si>
-  <si>
-    <t>A215</t>
-  </si>
-  <si>
-    <t>A216</t>
-  </si>
-  <si>
-    <t>A217</t>
-  </si>
-  <si>
-    <t>A218</t>
-  </si>
-  <si>
-    <t>A219</t>
-  </si>
-  <si>
-    <t>A220</t>
-  </si>
-  <si>
-    <t>A221</t>
-  </si>
-  <si>
-    <t>A222</t>
-  </si>
-  <si>
-    <t>A223</t>
-  </si>
-  <si>
-    <t>A224</t>
-  </si>
-  <si>
-    <t>A225</t>
-  </si>
-  <si>
-    <t>A226</t>
-  </si>
-  <si>
-    <t>A227</t>
-  </si>
-  <si>
-    <t>A228</t>
-  </si>
-  <si>
-    <t>A229</t>
-  </si>
-  <si>
-    <t>A230</t>
-  </si>
-  <si>
-    <t>A231</t>
-  </si>
-  <si>
-    <t>A232</t>
-  </si>
-  <si>
-    <t>A233</t>
-  </si>
-  <si>
-    <t>A234</t>
-  </si>
-  <si>
-    <t>A235</t>
-  </si>
-  <si>
-    <t>A236</t>
-  </si>
-  <si>
-    <t>A237</t>
-  </si>
-  <si>
-    <t>A238</t>
-  </si>
-  <si>
-    <t>A239</t>
-  </si>
-  <si>
-    <t>A240</t>
-  </si>
-  <si>
-    <t>A241</t>
-  </si>
-  <si>
-    <t>A242</t>
-  </si>
-  <si>
-    <t>A243</t>
-  </si>
-  <si>
-    <t>A244</t>
-  </si>
-  <si>
-    <t>A245</t>
-  </si>
-  <si>
-    <t>A246</t>
-  </si>
-  <si>
-    <t>A247</t>
-  </si>
-  <si>
-    <t>A248</t>
-  </si>
-  <si>
-    <t>A249</t>
-  </si>
-  <si>
-    <t>A250</t>
-  </si>
-  <si>
-    <t>A251</t>
-  </si>
-  <si>
-    <t>A252</t>
-  </si>
-  <si>
-    <t>A253</t>
-  </si>
-  <si>
-    <t>A254</t>
-  </si>
-  <si>
-    <t>A255</t>
-  </si>
-  <si>
-    <t>A256</t>
-  </si>
-  <si>
-    <t>A257</t>
-  </si>
-  <si>
-    <t>A258</t>
-  </si>
-  <si>
-    <t>A259</t>
-  </si>
-  <si>
-    <t>A260</t>
-  </si>
-  <si>
-    <t>A261</t>
-  </si>
-  <si>
-    <t>A262</t>
-  </si>
-  <si>
-    <t>A263</t>
-  </si>
-  <si>
-    <t>A264</t>
-  </si>
-  <si>
-    <t>A265</t>
-  </si>
-  <si>
-    <t>A266</t>
-  </si>
-  <si>
-    <t>A267</t>
-  </si>
-  <si>
-    <t>A268</t>
-  </si>
-  <si>
-    <t>A269</t>
-  </si>
-  <si>
-    <t>A270</t>
-  </si>
-  <si>
-    <t>A271</t>
-  </si>
-  <si>
-    <t>A272</t>
-  </si>
-  <si>
-    <t>A273</t>
-  </si>
-  <si>
-    <t>A274</t>
-  </si>
-  <si>
-    <t>A275</t>
-  </si>
-  <si>
-    <t>A276</t>
-  </si>
-  <si>
-    <t>A277</t>
-  </si>
-  <si>
-    <t>A278</t>
-  </si>
-  <si>
-    <t>A279</t>
-  </si>
-  <si>
-    <t>A280</t>
-  </si>
-  <si>
-    <t>A281</t>
-  </si>
-  <si>
-    <t>A282</t>
-  </si>
-  <si>
-    <t>A283</t>
-  </si>
-  <si>
-    <t>A284</t>
-  </si>
-  <si>
-    <t>A285</t>
-  </si>
-  <si>
-    <t>A286</t>
-  </si>
-  <si>
-    <t>A287</t>
-  </si>
-  <si>
-    <t>A288</t>
-  </si>
-  <si>
-    <t>A289</t>
-  </si>
-  <si>
-    <t>A290</t>
-  </si>
-  <si>
-    <t>A291</t>
-  </si>
-  <si>
-    <t>A292</t>
-  </si>
-  <si>
-    <t>A293</t>
-  </si>
-  <si>
-    <t>A294</t>
-  </si>
-  <si>
-    <t>A295</t>
-  </si>
-  <si>
-    <t>A296</t>
-  </si>
-  <si>
-    <t>A297</t>
-  </si>
-  <si>
-    <t>A298</t>
-  </si>
-  <si>
-    <t>A299</t>
-  </si>
-  <si>
-    <t>A300</t>
-  </si>
-  <si>
-    <t>A301</t>
-  </si>
-  <si>
-    <t>A302</t>
-  </si>
-  <si>
-    <t>A303</t>
-  </si>
-  <si>
-    <t>A304</t>
-  </si>
-  <si>
-    <t>A305</t>
-  </si>
-  <si>
-    <t>A306</t>
-  </si>
-  <si>
-    <t>A307</t>
-  </si>
-  <si>
-    <t>A308</t>
-  </si>
-  <si>
-    <t>A309</t>
-  </si>
-  <si>
-    <t>A310</t>
-  </si>
-  <si>
-    <t>A311</t>
-  </si>
-  <si>
-    <t>A312</t>
-  </si>
-  <si>
-    <t>A313</t>
-  </si>
-  <si>
-    <t>A314</t>
-  </si>
-  <si>
-    <t>A315</t>
-  </si>
-  <si>
-    <t>A316</t>
-  </si>
-  <si>
-    <t>A317</t>
-  </si>
-  <si>
-    <t>A318</t>
-  </si>
-  <si>
-    <t>A319</t>
-  </si>
-  <si>
-    <t>A320</t>
-  </si>
-  <si>
-    <t>A321</t>
-  </si>
-  <si>
-    <t>A322</t>
-  </si>
-  <si>
-    <t>A323</t>
-  </si>
-  <si>
-    <t>A324</t>
-  </si>
-  <si>
-    <t>A325</t>
-  </si>
-  <si>
-    <t>A326</t>
-  </si>
-  <si>
-    <t>A327</t>
-  </si>
-  <si>
-    <t>A328</t>
-  </si>
-  <si>
-    <t>A329</t>
-  </si>
-  <si>
-    <t>A330</t>
-  </si>
-  <si>
-    <t>A331</t>
-  </si>
-  <si>
-    <t>A332</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>语文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1113,7 +1153,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,16 +1181,11 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1159,14 +1194,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1185,16 +1227,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="43633.492016898148" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="332">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作者" refreshedDate="43633.492016898097" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="332" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:K333" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="11">
     <cacheField name="姓名" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
     </cacheField>
     <cacheField name="班级" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="7" count="7">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="7" count="7">
         <n v="4"/>
         <n v="7"/>
         <n v="2"/>
@@ -1205,33 +1247,38 @@
       </sharedItems>
     </cacheField>
     <cacheField name="总分" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="381" maxValue="605"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
     </cacheField>
     <cacheField name="语文" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="53" maxValue="108"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
     </cacheField>
     <cacheField name="数学" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="35" maxValue="120"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
     </cacheField>
     <cacheField name="英语" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="54" maxValue="118"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
     </cacheField>
     <cacheField name="物理" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="22" maxValue="61"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
     </cacheField>
     <cacheField name="历史" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="38" maxValue="60"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
     </cacheField>
     <cacheField name="地理" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="26" maxValue="60"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
     </cacheField>
     <cacheField name="政治" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="25" maxValue="56"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
     </cacheField>
     <cacheField name="生物" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="26" maxValue="58"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -5557,7 +5604,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -5619,6 +5666,11 @@
     <dataField name="平均值项:语文" fld="3" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
@@ -5875,99 +5927,97 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A333"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11:X19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="10" width="8.6640625" style="3"/>
-    <col min="11" max="11" width="8.6640625" style="5"/>
-    <col min="12" max="14" width="8.6640625" style="6"/>
-    <col min="15" max="15" width="11.33203125" style="6" customWidth="1"/>
-    <col min="16" max="16384" width="8.6640625" style="6"/>
+    <col min="1" max="10" width="8.640625" style="3"/>
+    <col min="11" max="11" width="8.640625" style="4"/>
+    <col min="12" max="14" width="8.640625" style="5"/>
+    <col min="15" max="15" width="11.35546875" style="5" customWidth="1"/>
+    <col min="16" max="16384" width="8.640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="N1" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="18" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="B2" s="3">
         <v>4</v>
@@ -5997,16 +6047,16 @@
       <c r="J2" s="3">
         <v>39</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>42</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="18" customHeight="1">
+    <row r="3" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3">
         <v>7</v>
@@ -6036,16 +6086,16 @@
       <c r="J3" s="3">
         <v>29.5</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>44</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="18" customHeight="1">
+    <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3">
         <v>4</v>
@@ -6075,16 +6125,16 @@
       <c r="J4" s="3">
         <v>43</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>34</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="18" customHeight="1">
+    <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3">
         <v>7</v>
@@ -6114,16 +6164,16 @@
       <c r="J5" s="3">
         <v>44</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>46</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="18" customHeight="1">
+    <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3">
         <v>2</v>
@@ -6153,16 +6203,17 @@
       <c r="J6" s="3">
         <v>42.5</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>42</v>
       </c>
-      <c r="O6" s="6">
+      <c r="M6" s="9"/>
+      <c r="O6" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="18" customHeight="1">
+    <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3">
         <v>4</v>
@@ -6192,16 +6243,16 @@
       <c r="J7" s="3">
         <v>45</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>46</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="18" customHeight="1">
+    <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
@@ -6231,16 +6282,16 @@
       <c r="J8" s="3">
         <v>43</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>52</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="18" customHeight="1">
+    <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3">
         <v>7</v>
@@ -6270,16 +6321,16 @@
       <c r="J9" s="3">
         <v>47</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>48</v>
       </c>
-      <c r="O9" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="18" customHeight="1">
+      <c r="O9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3">
         <v>7</v>
@@ -6309,13 +6360,13 @@
       <c r="J10" s="3">
         <v>42</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="18" customHeight="1">
+    <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -6345,43 +6396,43 @@
       <c r="J11" s="3">
         <v>37</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>34</v>
       </c>
-      <c r="O11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="W11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="X11" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="18" customHeight="1">
+      <c r="O11" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3">
         <v>4</v>
@@ -6411,43 +6462,43 @@
       <c r="J12" s="3">
         <v>36</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>54</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="5">
         <v>1</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="5">
         <v>82.625</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="5">
         <v>95.15625</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="5">
         <v>100.125</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="5">
         <v>45.9375</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="5">
         <v>52.760416666666664</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="5">
         <v>54.666666666666664</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12" s="5">
         <v>43.177083333333336</v>
       </c>
-      <c r="W12" s="6">
+      <c r="W12" s="5">
         <v>46.625</v>
       </c>
-      <c r="X12" s="6">
+      <c r="X12" s="5">
         <v>521.07291666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="18" customHeight="1">
+    <row r="13" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3">
         <v>6</v>
@@ -6477,43 +6528,43 @@
       <c r="J13" s="3">
         <v>32</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>48</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="5">
         <v>2</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="5">
         <v>83.708333333333329</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="5">
         <v>96.34375</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="5">
         <v>102.47916666666667</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="5">
         <v>42.5625</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="5">
         <v>52.510416666666664</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="5">
         <v>50.958333333333336</v>
       </c>
-      <c r="V13" s="6">
+      <c r="V13" s="5">
         <v>42.71875</v>
       </c>
-      <c r="W13" s="6">
+      <c r="W13" s="5">
         <v>44.125</v>
       </c>
-      <c r="X13" s="6">
+      <c r="X13" s="5">
         <v>515.40625</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="18" customHeight="1">
+    <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3">
         <v>7</v>
@@ -6543,43 +6594,43 @@
       <c r="J14" s="3">
         <v>40</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>40</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="5">
         <v>3</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="5">
         <v>84.714285714285708</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="5">
         <v>102.44897959183673</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="5">
         <v>101.04081632653062</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="5">
         <v>45.571428571428569</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="5">
         <v>50.551020408163268</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="5">
         <v>51.285714285714285</v>
       </c>
-      <c r="V14" s="6">
+      <c r="V14" s="5">
         <v>46.377551020408163</v>
       </c>
-      <c r="W14" s="6">
+      <c r="W14" s="5">
         <v>45.183673469387756</v>
       </c>
-      <c r="X14" s="6">
+      <c r="X14" s="5">
         <v>527.17346938775506</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="18" customHeight="1">
+    <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B15" s="3">
         <v>7</v>
@@ -6609,43 +6660,43 @@
       <c r="J15" s="3">
         <v>46</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>42</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="5">
         <v>4</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="5">
         <v>83.489583333333329</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="5">
         <v>96.3125</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="5">
         <v>100.35416666666667</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="5">
         <v>44.354166666666664</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="5">
         <v>50.208333333333336</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="5">
         <v>48.625</v>
       </c>
-      <c r="V15" s="6">
+      <c r="V15" s="5">
         <v>43.520833333333336</v>
       </c>
-      <c r="W15" s="6">
+      <c r="W15" s="5">
         <v>45.416666666666664</v>
       </c>
-      <c r="X15" s="6">
+      <c r="X15" s="5">
         <v>512.28125</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="18" customHeight="1">
+    <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B16" s="3">
         <v>7</v>
@@ -6675,43 +6726,43 @@
       <c r="J16" s="3">
         <v>38</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>44</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="5">
         <v>5</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="5">
         <v>85.051020408163268</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="5">
         <v>89.479591836734699</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="5">
         <v>96.571428571428569</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="5">
         <v>48.408163265306122</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="5">
         <v>51.387755102040813</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="5">
         <v>52.734693877551024</v>
       </c>
-      <c r="V16" s="6">
+      <c r="V16" s="5">
         <v>43.163265306122447</v>
       </c>
-      <c r="W16" s="6">
+      <c r="W16" s="5">
         <v>46.244897959183675</v>
       </c>
-      <c r="X16" s="6">
+      <c r="X16" s="5">
         <v>513.0408163265306</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="18" customHeight="1">
+    <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3">
         <v>2</v>
@@ -6741,43 +6792,43 @@
       <c r="J17" s="3">
         <v>43</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <v>44</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="5">
         <v>6</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="5">
         <v>85.597826086956516</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="5">
         <v>92.532608695652172</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="5">
         <v>99.434782608695656</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S17" s="5">
         <v>46.456521739130437</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T17" s="5">
         <v>51.282608695652172</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="5">
         <v>50.695652173913047</v>
       </c>
-      <c r="V17" s="6">
+      <c r="V17" s="5">
         <v>44.728260869565219</v>
       </c>
-      <c r="W17" s="6">
+      <c r="W17" s="5">
         <v>47.391304347826086</v>
       </c>
-      <c r="X17" s="6">
+      <c r="X17" s="5">
         <v>518.11956521739125</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="18" customHeight="1">
+    <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B18" s="3">
         <v>4</v>
@@ -6807,43 +6858,43 @@
       <c r="J18" s="3">
         <v>45</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <v>58</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="5">
         <v>7</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="5">
         <v>84.443181818181813</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18" s="5">
         <v>93.48863636363636</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="5">
         <v>96.909090909090907</v>
       </c>
-      <c r="S18" s="6">
+      <c r="S18" s="5">
         <v>46.18181818181818</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="5">
         <v>50.761363636363633</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="5">
         <v>43.340909090909093</v>
       </c>
-      <c r="V18" s="6">
+      <c r="V18" s="5">
         <v>44.352272727272727</v>
       </c>
-      <c r="W18" s="6">
+      <c r="W18" s="5">
         <v>46.363636363636367</v>
       </c>
-      <c r="X18" s="6">
+      <c r="X18" s="5">
         <v>505.84090909090907</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="18" customHeight="1">
+    <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3">
         <v>4</v>
@@ -6873,43 +6924,43 @@
       <c r="J19" s="3">
         <v>43</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="4">
         <v>34</v>
       </c>
-      <c r="O19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" s="6">
+      <c r="O19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="5">
         <v>84.225903614457835</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="5">
         <v>95.149096385542165</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="5">
         <v>99.587349397590359</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S19" s="5">
         <v>45.635542168674696</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="5">
         <v>51.356927710843372</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="5">
         <v>50.421686746987952</v>
       </c>
-      <c r="V19" s="6">
+      <c r="V19" s="5">
         <v>44.001506024096386</v>
       </c>
-      <c r="W19" s="6">
+      <c r="W19" s="5">
         <v>45.891566265060241</v>
       </c>
-      <c r="X19" s="6">
+      <c r="X19" s="5">
         <v>516.26957831325296</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="18" customHeight="1">
+    <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3">
         <v>4</v>
@@ -6939,13 +6990,13 @@
       <c r="J20" s="3">
         <v>41.5</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="18" customHeight="1">
+    <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B21" s="3">
         <v>7</v>
@@ -6975,13 +7026,13 @@
       <c r="J21" s="3">
         <v>46</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="18" customHeight="1">
+    <row r="22" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B22" s="3">
         <v>7</v>
@@ -7011,13 +7062,13 @@
       <c r="J22" s="3">
         <v>38.5</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="18" customHeight="1">
+    <row r="23" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B23" s="3">
         <v>7</v>
@@ -7047,13 +7098,13 @@
       <c r="J23" s="3">
         <v>39</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="18" customHeight="1">
+    <row r="24" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B24" s="3">
         <v>3</v>
@@ -7083,13 +7134,13 @@
       <c r="J24" s="3">
         <v>43</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="18" customHeight="1">
+    <row r="25" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B25" s="3">
         <v>5</v>
@@ -7119,13 +7170,13 @@
       <c r="J25" s="3">
         <v>49</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="18" customHeight="1">
+    <row r="26" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
@@ -7155,13 +7206,13 @@
       <c r="J26" s="3">
         <v>43</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="18" customHeight="1">
+    <row r="27" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B27" s="3">
         <v>6</v>
@@ -7191,13 +7242,13 @@
       <c r="J27" s="3">
         <v>44</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="18" customHeight="1">
+    <row r="28" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B28" s="3">
         <v>7</v>
@@ -7227,13 +7278,13 @@
       <c r="J28" s="3">
         <v>49</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="18" customHeight="1">
+    <row r="29" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B29" s="3">
         <v>2</v>
@@ -7263,13 +7314,13 @@
       <c r="J29" s="3">
         <v>51</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="18" customHeight="1">
+    <row r="30" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B30" s="3">
         <v>3</v>
@@ -7299,13 +7350,13 @@
       <c r="J30" s="3">
         <v>50</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="18" customHeight="1">
+    <row r="31" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B31" s="3">
         <v>3</v>
@@ -7335,13 +7386,13 @@
       <c r="J31" s="3">
         <v>42</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="18" customHeight="1">
+    <row r="32" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B32" s="3">
         <v>4</v>
@@ -7371,13 +7422,13 @@
       <c r="J32" s="3">
         <v>44</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="18" customHeight="1">
+    <row r="33" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B33" s="3">
         <v>4</v>
@@ -7407,13 +7458,13 @@
       <c r="J33" s="3">
         <v>49</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="18" customHeight="1">
+    <row r="34" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B34" s="3">
         <v>6</v>
@@ -7443,13 +7494,13 @@
       <c r="J34" s="3">
         <v>40</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="18" customHeight="1">
+    <row r="35" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B35" s="3">
         <v>6</v>
@@ -7479,13 +7530,13 @@
       <c r="J35" s="3">
         <v>48</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="18" customHeight="1">
+    <row r="36" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B36" s="3">
         <v>7</v>
@@ -7515,13 +7566,13 @@
       <c r="J36" s="3">
         <v>39</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="18" customHeight="1">
+    <row r="37" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B37" s="3">
         <v>7</v>
@@ -7551,13 +7602,13 @@
       <c r="J37" s="3">
         <v>30</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="18" customHeight="1">
+    <row r="38" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B38" s="3">
         <v>7</v>
@@ -7587,13 +7638,13 @@
       <c r="J38" s="3">
         <v>39</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="18" customHeight="1">
+    <row r="39" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B39" s="3">
         <v>7</v>
@@ -7623,13 +7674,13 @@
       <c r="J39" s="3">
         <v>34</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="18" customHeight="1">
+    <row r="40" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B40" s="3">
         <v>7</v>
@@ -7659,13 +7710,13 @@
       <c r="J40" s="3">
         <v>45</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="18" customHeight="1">
+    <row r="41" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B41" s="3">
         <v>7</v>
@@ -7695,13 +7746,13 @@
       <c r="J41" s="3">
         <v>50</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="18" customHeight="1">
+    <row r="42" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B42" s="3">
         <v>7</v>
@@ -7731,13 +7782,13 @@
       <c r="J42" s="3">
         <v>43</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="4">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="18" customHeight="1">
+    <row r="43" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B43" s="3">
         <v>3</v>
@@ -7767,13 +7818,13 @@
       <c r="J43" s="3">
         <v>42</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="18" customHeight="1">
+    <row r="44" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B44" s="3">
         <v>3</v>
@@ -7803,13 +7854,13 @@
       <c r="J44" s="3">
         <v>40</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K44" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="18" customHeight="1">
+    <row r="45" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B45" s="3">
         <v>4</v>
@@ -7839,13 +7890,13 @@
       <c r="J45" s="3">
         <v>47</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="18" customHeight="1">
+    <row r="46" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B46" s="3">
         <v>4</v>
@@ -7875,13 +7926,13 @@
       <c r="J46" s="3">
         <v>44</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="18" customHeight="1">
+    <row r="47" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B47" s="3">
         <v>4</v>
@@ -7911,13 +7962,13 @@
       <c r="J47" s="3">
         <v>48</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="18" customHeight="1">
+    <row r="48" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B48" s="3">
         <v>4</v>
@@ -7947,13 +7998,13 @@
       <c r="J48" s="3">
         <v>48</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K48" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="18" customHeight="1">
+    <row r="49" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B49" s="3">
         <v>5</v>
@@ -7983,13 +8034,13 @@
       <c r="J49" s="3">
         <v>46</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K49" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="18" customHeight="1">
+    <row r="50" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B50" s="3">
         <v>5</v>
@@ -8019,13 +8070,13 @@
       <c r="J50" s="3">
         <v>38.5</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K50" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="18" customHeight="1">
+    <row r="51" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B51" s="3">
         <v>6</v>
@@ -8055,13 +8106,13 @@
       <c r="J51" s="3">
         <v>45</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K51" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="18" customHeight="1">
+    <row r="52" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B52" s="3">
         <v>6</v>
@@ -8091,13 +8142,13 @@
       <c r="J52" s="3">
         <v>43</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K52" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="18" customHeight="1">
+    <row r="53" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B53" s="3">
         <v>6</v>
@@ -8127,13 +8178,13 @@
       <c r="J53" s="3">
         <v>49</v>
       </c>
-      <c r="K53" s="5">
+      <c r="K53" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="18" customHeight="1">
+    <row r="54" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B54" s="3">
         <v>6</v>
@@ -8163,13 +8214,13 @@
       <c r="J54" s="3">
         <v>47</v>
       </c>
-      <c r="K54" s="5">
+      <c r="K54" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="18" customHeight="1">
+    <row r="55" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B55" s="3">
         <v>6</v>
@@ -8199,13 +8250,13 @@
       <c r="J55" s="3">
         <v>37.5</v>
       </c>
-      <c r="K55" s="5">
+      <c r="K55" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="18" customHeight="1">
+    <row r="56" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B56" s="3">
         <v>7</v>
@@ -8235,13 +8286,13 @@
       <c r="J56" s="3">
         <v>50</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="18" customHeight="1">
+    <row r="57" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B57" s="3">
         <v>7</v>
@@ -8271,13 +8322,13 @@
       <c r="J57" s="3">
         <v>45</v>
       </c>
-      <c r="K57" s="5">
+      <c r="K57" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="18" customHeight="1">
+    <row r="58" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B58" s="3">
         <v>7</v>
@@ -8307,13 +8358,13 @@
       <c r="J58" s="3">
         <v>47</v>
       </c>
-      <c r="K58" s="5">
+      <c r="K58" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="18" customHeight="1">
+    <row r="59" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B59" s="3">
         <v>7</v>
@@ -8343,13 +8394,13 @@
       <c r="J59" s="3">
         <v>52</v>
       </c>
-      <c r="K59" s="5">
+      <c r="K59" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="18" customHeight="1">
+    <row r="60" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B60" s="3">
         <v>1</v>
@@ -8379,13 +8430,13 @@
       <c r="J60" s="3">
         <v>42</v>
       </c>
-      <c r="K60" s="5">
+      <c r="K60" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="18" customHeight="1">
+    <row r="61" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
@@ -8415,13 +8466,13 @@
       <c r="J61" s="3">
         <v>41</v>
       </c>
-      <c r="K61" s="5">
+      <c r="K61" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="18" customHeight="1">
+    <row r="62" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B62" s="3">
         <v>1</v>
@@ -8451,13 +8502,13 @@
       <c r="J62" s="3">
         <v>33</v>
       </c>
-      <c r="K62" s="5">
+      <c r="K62" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="18" customHeight="1">
+    <row r="63" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B63" s="3">
         <v>2</v>
@@ -8487,13 +8538,13 @@
       <c r="J63" s="3">
         <v>48</v>
       </c>
-      <c r="K63" s="5">
+      <c r="K63" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="18" customHeight="1">
+    <row r="64" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B64" s="3">
         <v>2</v>
@@ -8523,13 +8574,13 @@
       <c r="J64" s="3">
         <v>45</v>
       </c>
-      <c r="K64" s="5">
+      <c r="K64" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="18" customHeight="1">
+    <row r="65" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B65" s="3">
         <v>2</v>
@@ -8559,13 +8610,13 @@
       <c r="J65" s="3">
         <v>37</v>
       </c>
-      <c r="K65" s="5">
+      <c r="K65" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="18" customHeight="1">
+    <row r="66" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B66" s="3">
         <v>3</v>
@@ -8595,13 +8646,13 @@
       <c r="J66" s="3">
         <v>45</v>
       </c>
-      <c r="K66" s="5">
+      <c r="K66" s="4">
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="18" customHeight="1">
+    <row r="67" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B67" s="3">
         <v>3</v>
@@ -8631,13 +8682,13 @@
       <c r="J67" s="3">
         <v>41.5</v>
       </c>
-      <c r="K67" s="5">
+      <c r="K67" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="18" customHeight="1">
+    <row r="68" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B68" s="3">
         <v>3</v>
@@ -8667,13 +8718,13 @@
       <c r="J68" s="3">
         <v>40</v>
       </c>
-      <c r="K68" s="5">
+      <c r="K68" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="18" customHeight="1">
+    <row r="69" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B69" s="3">
         <v>4</v>
@@ -8703,13 +8754,13 @@
       <c r="J69" s="3">
         <v>42</v>
       </c>
-      <c r="K69" s="5">
+      <c r="K69" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="18" customHeight="1">
+    <row r="70" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B70" s="3">
         <v>4</v>
@@ -8739,13 +8790,13 @@
       <c r="J70" s="3">
         <v>49</v>
       </c>
-      <c r="K70" s="5">
+      <c r="K70" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="18" customHeight="1">
+    <row r="71" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B71" s="3">
         <v>5</v>
@@ -8775,13 +8826,13 @@
       <c r="J71" s="3">
         <v>25</v>
       </c>
-      <c r="K71" s="5">
+      <c r="K71" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="18" customHeight="1">
+    <row r="72" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B72" s="3">
         <v>5</v>
@@ -8811,13 +8862,13 @@
       <c r="J72" s="3">
         <v>38.5</v>
       </c>
-      <c r="K72" s="5">
+      <c r="K72" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="18" customHeight="1">
+    <row r="73" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B73" s="3">
         <v>6</v>
@@ -8847,13 +8898,13 @@
       <c r="J73" s="3">
         <v>41</v>
       </c>
-      <c r="K73" s="5">
+      <c r="K73" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="18" customHeight="1">
+    <row r="74" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B74" s="3">
         <v>7</v>
@@ -8883,13 +8934,13 @@
       <c r="J74" s="3">
         <v>49</v>
       </c>
-      <c r="K74" s="5">
+      <c r="K74" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="18" customHeight="1">
+    <row r="75" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B75" s="3">
         <v>7</v>
@@ -8919,13 +8970,13 @@
       <c r="J75" s="3">
         <v>48</v>
       </c>
-      <c r="K75" s="5">
+      <c r="K75" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="18" customHeight="1">
+    <row r="76" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B76" s="3">
         <v>7</v>
@@ -8955,13 +9006,13 @@
       <c r="J76" s="3">
         <v>44</v>
       </c>
-      <c r="K76" s="5">
+      <c r="K76" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="18" customHeight="1">
+    <row r="77" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B77" s="3">
         <v>7</v>
@@ -8991,13 +9042,13 @@
       <c r="J77" s="3">
         <v>50</v>
       </c>
-      <c r="K77" s="5">
+      <c r="K77" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="18" customHeight="1">
+    <row r="78" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B78" s="3">
         <v>7</v>
@@ -9027,13 +9078,13 @@
       <c r="J78" s="3">
         <v>40</v>
       </c>
-      <c r="K78" s="5">
+      <c r="K78" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="18" customHeight="1">
+    <row r="79" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B79" s="3">
         <v>2</v>
@@ -9063,13 +9114,13 @@
       <c r="J79" s="3">
         <v>39</v>
       </c>
-      <c r="K79" s="5">
+      <c r="K79" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="18" customHeight="1">
+    <row r="80" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B80" s="3">
         <v>2</v>
@@ -9099,13 +9150,13 @@
       <c r="J80" s="3">
         <v>44</v>
       </c>
-      <c r="K80" s="5">
+      <c r="K80" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="18" customHeight="1">
+    <row r="81" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B81" s="3">
         <v>2</v>
@@ -9135,13 +9186,13 @@
       <c r="J81" s="3">
         <v>39</v>
       </c>
-      <c r="K81" s="5">
+      <c r="K81" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="18" customHeight="1">
+    <row r="82" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B82" s="3">
         <v>2</v>
@@ -9171,13 +9222,13 @@
       <c r="J82" s="3">
         <v>42</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="18" customHeight="1">
+    <row r="83" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B83" s="3">
         <v>2</v>
@@ -9207,13 +9258,13 @@
       <c r="J83" s="3">
         <v>44</v>
       </c>
-      <c r="K83" s="5">
+      <c r="K83" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="18" customHeight="1">
+    <row r="84" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B84" s="3">
         <v>3</v>
@@ -9243,13 +9294,13 @@
       <c r="J84" s="3">
         <v>46</v>
       </c>
-      <c r="K84" s="5">
+      <c r="K84" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="18" customHeight="1">
+    <row r="85" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B85" s="3">
         <v>3</v>
@@ -9279,13 +9330,13 @@
       <c r="J85" s="3">
         <v>44</v>
       </c>
-      <c r="K85" s="5">
+      <c r="K85" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="18" customHeight="1">
+    <row r="86" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B86" s="3">
         <v>3</v>
@@ -9315,13 +9366,13 @@
       <c r="J86" s="3">
         <v>55</v>
       </c>
-      <c r="K86" s="5">
+      <c r="K86" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="18" customHeight="1">
+    <row r="87" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B87" s="3">
         <v>3</v>
@@ -9351,13 +9402,13 @@
       <c r="J87" s="3">
         <v>40</v>
       </c>
-      <c r="K87" s="5">
+      <c r="K87" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="18" customHeight="1">
+    <row r="88" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B88" s="3">
         <v>3</v>
@@ -9387,13 +9438,13 @@
       <c r="J88" s="3">
         <v>41</v>
       </c>
-      <c r="K88" s="5">
+      <c r="K88" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="18" customHeight="1">
+    <row r="89" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B89" s="3">
         <v>3</v>
@@ -9423,13 +9474,13 @@
       <c r="J89" s="3">
         <v>47</v>
       </c>
-      <c r="K89" s="5">
+      <c r="K89" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="18" customHeight="1">
+    <row r="90" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B90" s="3">
         <v>3</v>
@@ -9459,13 +9510,13 @@
       <c r="J90" s="3">
         <v>51</v>
       </c>
-      <c r="K90" s="5">
+      <c r="K90" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="18" customHeight="1">
+    <row r="91" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B91" s="3">
         <v>4</v>
@@ -9495,13 +9546,13 @@
       <c r="J91" s="3">
         <v>38</v>
       </c>
-      <c r="K91" s="5">
+      <c r="K91" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="18" customHeight="1">
+    <row r="92" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B92" s="3">
         <v>4</v>
@@ -9531,13 +9582,13 @@
       <c r="J92" s="3">
         <v>45</v>
       </c>
-      <c r="K92" s="5">
+      <c r="K92" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="18" customHeight="1">
+    <row r="93" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B93" s="3">
         <v>4</v>
@@ -9567,13 +9618,13 @@
       <c r="J93" s="3">
         <v>42</v>
       </c>
-      <c r="K93" s="5">
+      <c r="K93" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="18" customHeight="1">
+    <row r="94" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B94" s="3">
         <v>5</v>
@@ -9603,13 +9654,13 @@
       <c r="J94" s="3">
         <v>40</v>
       </c>
-      <c r="K94" s="5">
+      <c r="K94" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="18" customHeight="1">
+    <row r="95" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B95" s="3">
         <v>5</v>
@@ -9639,13 +9690,13 @@
       <c r="J95" s="3">
         <v>49</v>
       </c>
-      <c r="K95" s="5">
+      <c r="K95" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="18" customHeight="1">
+    <row r="96" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B96" s="3">
         <v>6</v>
@@ -9675,13 +9726,13 @@
       <c r="J96" s="3">
         <v>51.5</v>
       </c>
-      <c r="K96" s="5">
+      <c r="K96" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="18" customHeight="1">
+    <row r="97" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B97" s="3">
         <v>6</v>
@@ -9711,13 +9762,13 @@
       <c r="J97" s="3">
         <v>46</v>
       </c>
-      <c r="K97" s="5">
+      <c r="K97" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="18" customHeight="1">
+    <row r="98" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B98" s="3">
         <v>6</v>
@@ -9747,13 +9798,13 @@
       <c r="J98" s="3">
         <v>43</v>
       </c>
-      <c r="K98" s="5">
+      <c r="K98" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="18" customHeight="1">
+    <row r="99" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B99" s="3">
         <v>6</v>
@@ -9783,13 +9834,13 @@
       <c r="J99" s="3">
         <v>48</v>
       </c>
-      <c r="K99" s="5">
+      <c r="K99" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="18" customHeight="1">
+    <row r="100" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B100" s="3">
         <v>7</v>
@@ -9819,13 +9870,13 @@
       <c r="J100" s="3">
         <v>56</v>
       </c>
-      <c r="K100" s="5">
+      <c r="K100" s="4">
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="18" customHeight="1">
+    <row r="101" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B101" s="3">
         <v>7</v>
@@ -9855,13 +9906,13 @@
       <c r="J101" s="3">
         <v>46</v>
       </c>
-      <c r="K101" s="5">
+      <c r="K101" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="18" customHeight="1">
+    <row r="102" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B102" s="3">
         <v>7</v>
@@ -9891,13 +9942,13 @@
       <c r="J102" s="3">
         <v>54.5</v>
       </c>
-      <c r="K102" s="5">
+      <c r="K102" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="18" customHeight="1">
+    <row r="103" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B103" s="3">
         <v>7</v>
@@ -9927,13 +9978,13 @@
       <c r="J103" s="3">
         <v>37</v>
       </c>
-      <c r="K103" s="5">
+      <c r="K103" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="18" customHeight="1">
+    <row r="104" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B104" s="3">
         <v>7</v>
@@ -9963,13 +10014,13 @@
       <c r="J104" s="3">
         <v>40</v>
       </c>
-      <c r="K104" s="5">
+      <c r="K104" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="18" customHeight="1">
+    <row r="105" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B105" s="3">
         <v>1</v>
@@ -9999,13 +10050,13 @@
       <c r="J105" s="3">
         <v>43</v>
       </c>
-      <c r="K105" s="5">
+      <c r="K105" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="18" customHeight="1">
+    <row r="106" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B106" s="3">
         <v>2</v>
@@ -10035,13 +10086,13 @@
       <c r="J106" s="3">
         <v>52</v>
       </c>
-      <c r="K106" s="5">
+      <c r="K106" s="4">
         <v>56</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="18" customHeight="1">
+    <row r="107" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B107" s="3">
         <v>2</v>
@@ -10071,13 +10122,13 @@
       <c r="J107" s="3">
         <v>45</v>
       </c>
-      <c r="K107" s="5">
+      <c r="K107" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="18" customHeight="1">
+    <row r="108" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B108" s="3">
         <v>2</v>
@@ -10107,13 +10158,13 @@
       <c r="J108" s="3">
         <v>46</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="18" customHeight="1">
+    <row r="109" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B109" s="3">
         <v>2</v>
@@ -10143,13 +10194,13 @@
       <c r="J109" s="3">
         <v>40</v>
       </c>
-      <c r="K109" s="5">
+      <c r="K109" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="18" customHeight="1">
+    <row r="110" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B110" s="3">
         <v>2</v>
@@ -10179,13 +10230,13 @@
       <c r="J110" s="3">
         <v>36</v>
       </c>
-      <c r="K110" s="5">
+      <c r="K110" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="18" customHeight="1">
+    <row r="111" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B111" s="3">
         <v>2</v>
@@ -10215,13 +10266,13 @@
       <c r="J111" s="3">
         <v>44</v>
       </c>
-      <c r="K111" s="5">
+      <c r="K111" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="18" customHeight="1">
+    <row r="112" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B112" s="3">
         <v>3</v>
@@ -10251,13 +10302,13 @@
       <c r="J112" s="3">
         <v>47</v>
       </c>
-      <c r="K112" s="5">
+      <c r="K112" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="18" customHeight="1">
+    <row r="113" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B113" s="3">
         <v>3</v>
@@ -10287,13 +10338,13 @@
       <c r="J113" s="3">
         <v>47</v>
       </c>
-      <c r="K113" s="5">
+      <c r="K113" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="18" customHeight="1">
+    <row r="114" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B114" s="3">
         <v>4</v>
@@ -10323,13 +10374,13 @@
       <c r="J114" s="3">
         <v>45</v>
       </c>
-      <c r="K114" s="5">
+      <c r="K114" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="18" customHeight="1">
+    <row r="115" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B115" s="3">
         <v>4</v>
@@ -10359,13 +10410,13 @@
       <c r="J115" s="3">
         <v>46</v>
       </c>
-      <c r="K115" s="5">
+      <c r="K115" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="18" customHeight="1">
+    <row r="116" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B116" s="3">
         <v>4</v>
@@ -10395,13 +10446,13 @@
       <c r="J116" s="3">
         <v>36.5</v>
       </c>
-      <c r="K116" s="5">
+      <c r="K116" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="18" customHeight="1">
+    <row r="117" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B117" s="3">
         <v>6</v>
@@ -10431,13 +10482,13 @@
       <c r="J117" s="3">
         <v>39</v>
       </c>
-      <c r="K117" s="5">
+      <c r="K117" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="18" customHeight="1">
+    <row r="118" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B118" s="3">
         <v>6</v>
@@ -10467,13 +10518,13 @@
       <c r="J118" s="3">
         <v>48</v>
       </c>
-      <c r="K118" s="5">
+      <c r="K118" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="18" customHeight="1">
+    <row r="119" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B119" s="3">
         <v>7</v>
@@ -10503,13 +10554,13 @@
       <c r="J119" s="3">
         <v>48</v>
       </c>
-      <c r="K119" s="5">
+      <c r="K119" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="18" customHeight="1">
+    <row r="120" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B120" s="3">
         <v>7</v>
@@ -10539,13 +10590,13 @@
       <c r="J120" s="3">
         <v>37.5</v>
       </c>
-      <c r="K120" s="5">
+      <c r="K120" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="18" customHeight="1">
+    <row r="121" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B121" s="3">
         <v>7</v>
@@ -10575,13 +10626,13 @@
       <c r="J121" s="3">
         <v>47.5</v>
       </c>
-      <c r="K121" s="5">
+      <c r="K121" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="18" customHeight="1">
+    <row r="122" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B122" s="3">
         <v>7</v>
@@ -10611,13 +10662,13 @@
       <c r="J122" s="3">
         <v>47</v>
       </c>
-      <c r="K122" s="5">
+      <c r="K122" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="18" customHeight="1">
+    <row r="123" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B123" s="3">
         <v>1</v>
@@ -10647,13 +10698,13 @@
       <c r="J123" s="3">
         <v>43</v>
       </c>
-      <c r="K123" s="5">
+      <c r="K123" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="18" customHeight="1">
+    <row r="124" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B124" s="3">
         <v>1</v>
@@ -10683,13 +10734,13 @@
       <c r="J124" s="3">
         <v>38</v>
       </c>
-      <c r="K124" s="5">
+      <c r="K124" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="18" customHeight="1">
+    <row r="125" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B125" s="3">
         <v>1</v>
@@ -10719,13 +10770,13 @@
       <c r="J125" s="3">
         <v>42.5</v>
       </c>
-      <c r="K125" s="5">
+      <c r="K125" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="18" customHeight="1">
+    <row r="126" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B126" s="3">
         <v>2</v>
@@ -10755,13 +10806,13 @@
       <c r="J126" s="3">
         <v>45</v>
       </c>
-      <c r="K126" s="5">
+      <c r="K126" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="18" customHeight="1">
+    <row r="127" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B127" s="3">
         <v>2</v>
@@ -10791,13 +10842,13 @@
       <c r="J127" s="3">
         <v>43</v>
       </c>
-      <c r="K127" s="5">
+      <c r="K127" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="18" customHeight="1">
+    <row r="128" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B128" s="3">
         <v>2</v>
@@ -10827,13 +10878,13 @@
       <c r="J128" s="3">
         <v>31.5</v>
       </c>
-      <c r="K128" s="5">
+      <c r="K128" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="18" customHeight="1">
+    <row r="129" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B129" s="3">
         <v>3</v>
@@ -10863,13 +10914,13 @@
       <c r="J129" s="3">
         <v>46</v>
       </c>
-      <c r="K129" s="5">
+      <c r="K129" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="18" customHeight="1">
+    <row r="130" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B130" s="3">
         <v>3</v>
@@ -10899,13 +10950,13 @@
       <c r="J130" s="3">
         <v>49</v>
       </c>
-      <c r="K130" s="5">
+      <c r="K130" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="18" customHeight="1">
+    <row r="131" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B131" s="3">
         <v>3</v>
@@ -10935,13 +10986,13 @@
       <c r="J131" s="3">
         <v>43</v>
       </c>
-      <c r="K131" s="5">
+      <c r="K131" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="18" customHeight="1">
+    <row r="132" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B132" s="3">
         <v>3</v>
@@ -10971,13 +11022,13 @@
       <c r="J132" s="3">
         <v>50</v>
       </c>
-      <c r="K132" s="5">
+      <c r="K132" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="18" customHeight="1">
+    <row r="133" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B133" s="3">
         <v>3</v>
@@ -11007,13 +11058,13 @@
       <c r="J133" s="3">
         <v>47</v>
       </c>
-      <c r="K133" s="5">
+      <c r="K133" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="18" customHeight="1">
+    <row r="134" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B134" s="3">
         <v>3</v>
@@ -11043,13 +11094,13 @@
       <c r="J134" s="3">
         <v>44</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="18" customHeight="1">
+    <row r="135" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B135" s="3">
         <v>4</v>
@@ -11079,13 +11130,13 @@
       <c r="J135" s="3">
         <v>40.5</v>
       </c>
-      <c r="K135" s="5">
+      <c r="K135" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="18" customHeight="1">
+    <row r="136" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B136" s="3">
         <v>4</v>
@@ -11115,13 +11166,13 @@
       <c r="J136" s="3">
         <v>40</v>
       </c>
-      <c r="K136" s="5">
+      <c r="K136" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="18" customHeight="1">
+    <row r="137" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B137" s="3">
         <v>4</v>
@@ -11151,13 +11202,13 @@
       <c r="J137" s="3">
         <v>50</v>
       </c>
-      <c r="K137" s="5">
+      <c r="K137" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="18" customHeight="1">
+    <row r="138" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B138" s="3">
         <v>4</v>
@@ -11187,13 +11238,13 @@
       <c r="J138" s="3">
         <v>41</v>
       </c>
-      <c r="K138" s="5">
+      <c r="K138" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="18" customHeight="1">
+    <row r="139" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B139" s="3">
         <v>4</v>
@@ -11223,13 +11274,13 @@
       <c r="J139" s="3">
         <v>34</v>
       </c>
-      <c r="K139" s="5">
+      <c r="K139" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="18" customHeight="1">
+    <row r="140" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B140" s="3">
         <v>4</v>
@@ -11259,13 +11310,13 @@
       <c r="J140" s="3">
         <v>43</v>
       </c>
-      <c r="K140" s="5">
+      <c r="K140" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="18" customHeight="1">
+    <row r="141" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B141" s="3">
         <v>5</v>
@@ -11295,13 +11346,13 @@
       <c r="J141" s="3">
         <v>36.5</v>
       </c>
-      <c r="K141" s="5">
+      <c r="K141" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="18" customHeight="1">
+    <row r="142" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B142" s="3">
         <v>5</v>
@@ -11331,13 +11382,13 @@
       <c r="J142" s="3">
         <v>48.5</v>
       </c>
-      <c r="K142" s="5">
+      <c r="K142" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="18" customHeight="1">
+    <row r="143" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B143" s="3">
         <v>5</v>
@@ -11367,13 +11418,13 @@
       <c r="J143" s="3">
         <v>39</v>
       </c>
-      <c r="K143" s="5">
+      <c r="K143" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="18" customHeight="1">
+    <row r="144" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B144" s="3">
         <v>5</v>
@@ -11403,13 +11454,13 @@
       <c r="J144" s="3">
         <v>38</v>
       </c>
-      <c r="K144" s="5">
+      <c r="K144" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="18" customHeight="1">
+    <row r="145" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B145" s="3">
         <v>5</v>
@@ -11439,13 +11490,13 @@
       <c r="J145" s="3">
         <v>35</v>
       </c>
-      <c r="K145" s="5">
+      <c r="K145" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="18" customHeight="1">
+    <row r="146" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B146" s="3">
         <v>5</v>
@@ -11475,13 +11526,13 @@
       <c r="J146" s="3">
         <v>48</v>
       </c>
-      <c r="K146" s="5">
+      <c r="K146" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="18" customHeight="1">
+    <row r="147" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B147" s="3">
         <v>6</v>
@@ -11511,13 +11562,13 @@
       <c r="J147" s="3">
         <v>43</v>
       </c>
-      <c r="K147" s="5">
+      <c r="K147" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="18" customHeight="1">
+    <row r="148" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B148" s="3">
         <v>6</v>
@@ -11547,13 +11598,13 @@
       <c r="J148" s="3">
         <v>45</v>
       </c>
-      <c r="K148" s="5">
+      <c r="K148" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="18" customHeight="1">
+    <row r="149" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B149" s="3">
         <v>6</v>
@@ -11583,13 +11634,13 @@
       <c r="J149" s="3">
         <v>42</v>
       </c>
-      <c r="K149" s="5">
+      <c r="K149" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="18" customHeight="1">
+    <row r="150" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B150" s="3">
         <v>6</v>
@@ -11619,13 +11670,13 @@
       <c r="J150" s="3">
         <v>41</v>
       </c>
-      <c r="K150" s="5">
+      <c r="K150" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="18" customHeight="1">
+    <row r="151" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B151" s="3">
         <v>1</v>
@@ -11655,13 +11706,13 @@
       <c r="J151" s="3">
         <v>38</v>
       </c>
-      <c r="K151" s="5">
+      <c r="K151" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="18" customHeight="1">
+    <row r="152" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B152" s="3">
         <v>1</v>
@@ -11691,13 +11742,13 @@
       <c r="J152" s="3">
         <v>46.5</v>
       </c>
-      <c r="K152" s="5">
+      <c r="K152" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="18" customHeight="1">
+    <row r="153" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B153" s="3">
         <v>1</v>
@@ -11727,13 +11778,13 @@
       <c r="J153" s="3">
         <v>49</v>
       </c>
-      <c r="K153" s="5">
+      <c r="K153" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="18" customHeight="1">
+    <row r="154" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B154" s="3">
         <v>2</v>
@@ -11763,13 +11814,13 @@
       <c r="J154" s="3">
         <v>45</v>
       </c>
-      <c r="K154" s="5">
+      <c r="K154" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="18" customHeight="1">
+    <row r="155" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B155" s="3">
         <v>2</v>
@@ -11799,13 +11850,13 @@
       <c r="J155" s="3">
         <v>46</v>
       </c>
-      <c r="K155" s="5">
+      <c r="K155" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="18" customHeight="1">
+    <row r="156" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B156" s="3">
         <v>2</v>
@@ -11835,13 +11886,13 @@
       <c r="J156" s="3">
         <v>42</v>
       </c>
-      <c r="K156" s="5">
+      <c r="K156" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="18" customHeight="1">
+    <row r="157" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B157" s="3">
         <v>2</v>
@@ -11871,13 +11922,13 @@
       <c r="J157" s="3">
         <v>43</v>
       </c>
-      <c r="K157" s="5">
+      <c r="K157" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="18" customHeight="1">
+    <row r="158" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B158" s="3">
         <v>2</v>
@@ -11907,13 +11958,13 @@
       <c r="J158" s="3">
         <v>46</v>
       </c>
-      <c r="K158" s="5">
+      <c r="K158" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="18" customHeight="1">
+    <row r="159" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B159" s="3">
         <v>2</v>
@@ -11943,13 +11994,13 @@
       <c r="J159" s="3">
         <v>44.5</v>
       </c>
-      <c r="K159" s="5">
+      <c r="K159" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="18" customHeight="1">
+    <row r="160" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B160" s="3">
         <v>2</v>
@@ -11979,13 +12030,13 @@
       <c r="J160" s="3">
         <v>46</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="18" customHeight="1">
+    <row r="161" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B161" s="3">
         <v>2</v>
@@ -12015,13 +12066,13 @@
       <c r="J161" s="3">
         <v>44</v>
       </c>
-      <c r="K161" s="5">
+      <c r="K161" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="18" customHeight="1">
+    <row r="162" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B162" s="3">
         <v>2</v>
@@ -12051,13 +12102,13 @@
       <c r="J162" s="3">
         <v>46</v>
       </c>
-      <c r="K162" s="5">
+      <c r="K162" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="18" customHeight="1">
+    <row r="163" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B163" s="3">
         <v>2</v>
@@ -12087,13 +12138,13 @@
       <c r="J163" s="3">
         <v>45</v>
       </c>
-      <c r="K163" s="5">
+      <c r="K163" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="18" customHeight="1">
+    <row r="164" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B164" s="3">
         <v>3</v>
@@ -12123,13 +12174,13 @@
       <c r="J164" s="3">
         <v>49</v>
       </c>
-      <c r="K164" s="5">
+      <c r="K164" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="18" customHeight="1">
+    <row r="165" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B165" s="3">
         <v>3</v>
@@ -12159,13 +12210,13 @@
       <c r="J165" s="3">
         <v>46</v>
       </c>
-      <c r="K165" s="5">
+      <c r="K165" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="18" customHeight="1">
+    <row r="166" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B166" s="3">
         <v>3</v>
@@ -12195,13 +12246,13 @@
       <c r="J166" s="3">
         <v>44</v>
       </c>
-      <c r="K166" s="5">
+      <c r="K166" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="18" customHeight="1">
+    <row r="167" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B167" s="3">
         <v>4</v>
@@ -12231,13 +12282,13 @@
       <c r="J167" s="3">
         <v>49</v>
       </c>
-      <c r="K167" s="5">
+      <c r="K167" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="18" customHeight="1">
+    <row r="168" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B168" s="3">
         <v>5</v>
@@ -12267,13 +12318,13 @@
       <c r="J168" s="3">
         <v>46</v>
       </c>
-      <c r="K168" s="5">
+      <c r="K168" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="18" customHeight="1">
+    <row r="169" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B169" s="3">
         <v>5</v>
@@ -12303,13 +12354,13 @@
       <c r="J169" s="3">
         <v>43</v>
       </c>
-      <c r="K169" s="5">
+      <c r="K169" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="18" customHeight="1">
+    <row r="170" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B170" s="3">
         <v>5</v>
@@ -12339,13 +12390,13 @@
       <c r="J170" s="3">
         <v>44.5</v>
       </c>
-      <c r="K170" s="5">
+      <c r="K170" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="18" customHeight="1">
+    <row r="171" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B171" s="3">
         <v>5</v>
@@ -12375,13 +12426,13 @@
       <c r="J171" s="3">
         <v>33</v>
       </c>
-      <c r="K171" s="5">
+      <c r="K171" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="18" customHeight="1">
+    <row r="172" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B172" s="3">
         <v>5</v>
@@ -12411,13 +12462,13 @@
       <c r="J172" s="3">
         <v>41</v>
       </c>
-      <c r="K172" s="5">
+      <c r="K172" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="18" customHeight="1">
+    <row r="173" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B173" s="3">
         <v>6</v>
@@ -12447,13 +12498,13 @@
       <c r="J173" s="3">
         <v>50</v>
       </c>
-      <c r="K173" s="5">
+      <c r="K173" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="18" customHeight="1">
+    <row r="174" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B174" s="3">
         <v>6</v>
@@ -12483,13 +12534,13 @@
       <c r="J174" s="3">
         <v>47</v>
       </c>
-      <c r="K174" s="5">
+      <c r="K174" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="18" customHeight="1">
+    <row r="175" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B175" s="3">
         <v>6</v>
@@ -12519,13 +12570,13 @@
       <c r="J175" s="3">
         <v>42</v>
       </c>
-      <c r="K175" s="5">
+      <c r="K175" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="18" customHeight="1">
+    <row r="176" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B176" s="3">
         <v>6</v>
@@ -12555,13 +12606,13 @@
       <c r="J176" s="3">
         <v>45</v>
       </c>
-      <c r="K176" s="5">
+      <c r="K176" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="18" customHeight="1">
+    <row r="177" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B177" s="3">
         <v>6</v>
@@ -12591,13 +12642,13 @@
       <c r="J177" s="3">
         <v>46</v>
       </c>
-      <c r="K177" s="5">
+      <c r="K177" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="18" customHeight="1">
+    <row r="178" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B178" s="3">
         <v>6</v>
@@ -12627,13 +12678,13 @@
       <c r="J178" s="3">
         <v>43.5</v>
       </c>
-      <c r="K178" s="5">
+      <c r="K178" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="18" customHeight="1">
+    <row r="179" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B179" s="3">
         <v>7</v>
@@ -12663,13 +12714,13 @@
       <c r="J179" s="3">
         <v>44</v>
       </c>
-      <c r="K179" s="5">
+      <c r="K179" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="18" customHeight="1">
+    <row r="180" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B180" s="3">
         <v>7</v>
@@ -12699,13 +12750,13 @@
       <c r="J180" s="3">
         <v>53</v>
       </c>
-      <c r="K180" s="5">
+      <c r="K180" s="4">
         <v>56</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="18" customHeight="1">
+    <row r="181" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B181" s="3">
         <v>1</v>
@@ -12735,13 +12786,13 @@
       <c r="J181" s="3">
         <v>44</v>
       </c>
-      <c r="K181" s="5">
+      <c r="K181" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="18" customHeight="1">
+    <row r="182" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B182" s="3">
         <v>1</v>
@@ -12771,13 +12822,13 @@
       <c r="J182" s="3">
         <v>43</v>
       </c>
-      <c r="K182" s="5">
+      <c r="K182" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="18" customHeight="1">
+    <row r="183" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B183" s="3">
         <v>1</v>
@@ -12807,13 +12858,13 @@
       <c r="J183" s="3">
         <v>48</v>
       </c>
-      <c r="K183" s="5">
+      <c r="K183" s="4">
         <v>58</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="18" customHeight="1">
+    <row r="184" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B184" s="3">
         <v>1</v>
@@ -12843,13 +12894,13 @@
       <c r="J184" s="3">
         <v>36</v>
       </c>
-      <c r="K184" s="5">
+      <c r="K184" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="18" customHeight="1">
+    <row r="185" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B185" s="3">
         <v>1</v>
@@ -12879,13 +12930,13 @@
       <c r="J185" s="3">
         <v>37</v>
       </c>
-      <c r="K185" s="5">
+      <c r="K185" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="18" customHeight="1">
+    <row r="186" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B186" s="3">
         <v>1</v>
@@ -12915,13 +12966,13 @@
       <c r="J186" s="3">
         <v>44</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="18" customHeight="1">
+    <row r="187" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B187" s="3">
         <v>1</v>
@@ -12951,13 +13002,13 @@
       <c r="J187" s="3">
         <v>38</v>
       </c>
-      <c r="K187" s="5">
+      <c r="K187" s="4">
         <v>34</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="18" customHeight="1">
+    <row r="188" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B188" s="3">
         <v>2</v>
@@ -12987,13 +13038,13 @@
       <c r="J188" s="3">
         <v>39</v>
       </c>
-      <c r="K188" s="5">
+      <c r="K188" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="18" customHeight="1">
+    <row r="189" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B189" s="3">
         <v>2</v>
@@ -13023,13 +13074,13 @@
       <c r="J189" s="3">
         <v>44</v>
       </c>
-      <c r="K189" s="5">
+      <c r="K189" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="18" customHeight="1">
+    <row r="190" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B190" s="3">
         <v>2</v>
@@ -13059,13 +13110,13 @@
       <c r="J190" s="3">
         <v>41</v>
       </c>
-      <c r="K190" s="5">
+      <c r="K190" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="18" customHeight="1">
+    <row r="191" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B191" s="3">
         <v>2</v>
@@ -13095,13 +13146,13 @@
       <c r="J191" s="3">
         <v>43</v>
       </c>
-      <c r="K191" s="5">
+      <c r="K191" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="18" customHeight="1">
+    <row r="192" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B192" s="3">
         <v>2</v>
@@ -13131,13 +13182,13 @@
       <c r="J192" s="3">
         <v>38</v>
       </c>
-      <c r="K192" s="5">
+      <c r="K192" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="18" customHeight="1">
+    <row r="193" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B193" s="3">
         <v>2</v>
@@ -13167,13 +13218,13 @@
       <c r="J193" s="3">
         <v>39</v>
       </c>
-      <c r="K193" s="5">
+      <c r="K193" s="4">
         <v>34</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="18" customHeight="1">
+    <row r="194" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B194" s="3">
         <v>3</v>
@@ -13203,13 +13254,13 @@
       <c r="J194" s="3">
         <v>52</v>
       </c>
-      <c r="K194" s="5">
+      <c r="K194" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="18" customHeight="1">
+    <row r="195" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B195" s="3">
         <v>3</v>
@@ -13239,13 +13290,13 @@
       <c r="J195" s="3">
         <v>41</v>
       </c>
-      <c r="K195" s="5">
+      <c r="K195" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="18" customHeight="1">
+    <row r="196" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B196" s="3">
         <v>3</v>
@@ -13275,13 +13326,13 @@
       <c r="J196" s="3">
         <v>53.5</v>
       </c>
-      <c r="K196" s="5">
+      <c r="K196" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="18" customHeight="1">
+    <row r="197" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B197" s="3">
         <v>4</v>
@@ -13311,13 +13362,13 @@
       <c r="J197" s="3">
         <v>41</v>
       </c>
-      <c r="K197" s="5">
+      <c r="K197" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="18" customHeight="1">
+    <row r="198" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B198" s="3">
         <v>4</v>
@@ -13347,13 +13398,13 @@
       <c r="J198" s="3">
         <v>34</v>
       </c>
-      <c r="K198" s="5">
+      <c r="K198" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="18" customHeight="1">
+    <row r="199" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B199" s="3">
         <v>4</v>
@@ -13383,13 +13434,13 @@
       <c r="J199" s="3">
         <v>50</v>
       </c>
-      <c r="K199" s="5">
+      <c r="K199" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="18" customHeight="1">
+    <row r="200" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B200" s="3">
         <v>4</v>
@@ -13419,13 +13470,13 @@
       <c r="J200" s="3">
         <v>46</v>
       </c>
-      <c r="K200" s="5">
+      <c r="K200" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="18" customHeight="1">
+    <row r="201" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B201" s="3">
         <v>4</v>
@@ -13455,13 +13506,13 @@
       <c r="J201" s="3">
         <v>38</v>
       </c>
-      <c r="K201" s="5">
+      <c r="K201" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="18" customHeight="1">
+    <row r="202" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B202" s="3">
         <v>5</v>
@@ -13491,13 +13542,13 @@
       <c r="J202" s="3">
         <v>47</v>
       </c>
-      <c r="K202" s="5">
+      <c r="K202" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="18" customHeight="1">
+    <row r="203" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B203" s="3">
         <v>5</v>
@@ -13527,13 +13578,13 @@
       <c r="J203" s="3">
         <v>37</v>
       </c>
-      <c r="K203" s="5">
+      <c r="K203" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="18" customHeight="1">
+    <row r="204" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B204" s="3">
         <v>5</v>
@@ -13563,13 +13614,13 @@
       <c r="J204" s="3">
         <v>47</v>
       </c>
-      <c r="K204" s="5">
+      <c r="K204" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="18" customHeight="1">
+    <row r="205" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B205" s="3">
         <v>5</v>
@@ -13599,13 +13650,13 @@
       <c r="J205" s="3">
         <v>45</v>
       </c>
-      <c r="K205" s="5">
+      <c r="K205" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="18" customHeight="1">
+    <row r="206" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B206" s="3">
         <v>5</v>
@@ -13635,13 +13686,13 @@
       <c r="J206" s="3">
         <v>42</v>
       </c>
-      <c r="K206" s="5">
+      <c r="K206" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="18" customHeight="1">
+    <row r="207" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B207" s="3">
         <v>5</v>
@@ -13671,13 +13722,13 @@
       <c r="J207" s="3">
         <v>47</v>
       </c>
-      <c r="K207" s="5">
+      <c r="K207" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="18" customHeight="1">
+    <row r="208" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B208" s="3">
         <v>5</v>
@@ -13707,13 +13758,13 @@
       <c r="J208" s="3">
         <v>42</v>
       </c>
-      <c r="K208" s="5">
+      <c r="K208" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="18" customHeight="1">
+    <row r="209" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B209" s="3">
         <v>5</v>
@@ -13743,13 +13794,13 @@
       <c r="J209" s="3">
         <v>41</v>
       </c>
-      <c r="K209" s="5">
+      <c r="K209" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="18" customHeight="1">
+    <row r="210" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B210" s="3">
         <v>5</v>
@@ -13779,13 +13830,13 @@
       <c r="J210" s="3">
         <v>50</v>
       </c>
-      <c r="K210" s="5">
+      <c r="K210" s="4">
         <v>56</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="18" customHeight="1">
+    <row r="211" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B211" s="3">
         <v>5</v>
@@ -13815,13 +13866,13 @@
       <c r="J211" s="3">
         <v>45</v>
       </c>
-      <c r="K211" s="5">
+      <c r="K211" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="18" customHeight="1">
+    <row r="212" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B212" s="3">
         <v>6</v>
@@ -13851,13 +13902,13 @@
       <c r="J212" s="3">
         <v>45</v>
       </c>
-      <c r="K212" s="5">
+      <c r="K212" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="18" customHeight="1">
+    <row r="213" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B213" s="3">
         <v>6</v>
@@ -13887,13 +13938,13 @@
       <c r="J213" s="3">
         <v>32</v>
       </c>
-      <c r="K213" s="5">
+      <c r="K213" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="18" customHeight="1">
+    <row r="214" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B214" s="3">
         <v>3</v>
@@ -13923,13 +13974,13 @@
       <c r="J214" s="3">
         <v>49</v>
       </c>
-      <c r="K214" s="5">
+      <c r="K214" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="18" customHeight="1">
+    <row r="215" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B215" s="3">
         <v>1</v>
@@ -13959,13 +14010,13 @@
       <c r="J215" s="3">
         <v>48</v>
       </c>
-      <c r="K215" s="5">
+      <c r="K215" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="18" customHeight="1">
+    <row r="216" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B216" s="3">
         <v>1</v>
@@ -13995,13 +14046,13 @@
       <c r="J216" s="3">
         <v>44</v>
       </c>
-      <c r="K216" s="5">
+      <c r="K216" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="18" customHeight="1">
+    <row r="217" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B217" s="3">
         <v>1</v>
@@ -14031,13 +14082,13 @@
       <c r="J217" s="3">
         <v>37</v>
       </c>
-      <c r="K217" s="5">
+      <c r="K217" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="18" customHeight="1">
+    <row r="218" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B218" s="3">
         <v>1</v>
@@ -14067,13 +14118,13 @@
       <c r="J218" s="3">
         <v>46</v>
       </c>
-      <c r="K218" s="5">
+      <c r="K218" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="18" customHeight="1">
+    <row r="219" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B219" s="3">
         <v>1</v>
@@ -14103,13 +14154,13 @@
       <c r="J219" s="3">
         <v>41</v>
       </c>
-      <c r="K219" s="5">
+      <c r="K219" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="18" customHeight="1">
+    <row r="220" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B220" s="3">
         <v>1</v>
@@ -14139,13 +14190,13 @@
       <c r="J220" s="3">
         <v>41</v>
       </c>
-      <c r="K220" s="5">
+      <c r="K220" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="18" customHeight="1">
+    <row r="221" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B221" s="3">
         <v>1</v>
@@ -14175,13 +14226,13 @@
       <c r="J221" s="3">
         <v>47</v>
       </c>
-      <c r="K221" s="5">
+      <c r="K221" s="4">
         <v>34</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="18" customHeight="1">
+    <row r="222" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B222" s="3">
         <v>1</v>
@@ -14211,13 +14262,13 @@
       <c r="J222" s="3">
         <v>43.5</v>
       </c>
-      <c r="K222" s="5">
+      <c r="K222" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="18" customHeight="1">
+    <row r="223" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B223" s="3">
         <v>1</v>
@@ -14247,13 +14298,13 @@
       <c r="J223" s="3">
         <v>49</v>
       </c>
-      <c r="K223" s="5">
+      <c r="K223" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="18" customHeight="1">
+    <row r="224" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B224" s="3">
         <v>1</v>
@@ -14283,13 +14334,13 @@
       <c r="J224" s="3">
         <v>43</v>
       </c>
-      <c r="K224" s="5">
+      <c r="K224" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="18" customHeight="1">
+    <row r="225" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B225" s="3">
         <v>1</v>
@@ -14319,13 +14370,13 @@
       <c r="J225" s="3">
         <v>43</v>
       </c>
-      <c r="K225" s="5">
+      <c r="K225" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="18" customHeight="1">
+    <row r="226" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B226" s="3">
         <v>1</v>
@@ -14355,13 +14406,13 @@
       <c r="J226" s="3">
         <v>40</v>
       </c>
-      <c r="K226" s="5">
+      <c r="K226" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="18" customHeight="1">
+    <row r="227" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B227" s="3">
         <v>1</v>
@@ -14391,13 +14442,13 @@
       <c r="J227" s="3">
         <v>45</v>
       </c>
-      <c r="K227" s="5">
+      <c r="K227" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="18" customHeight="1">
+    <row r="228" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B228" s="3">
         <v>2</v>
@@ -14427,13 +14478,13 @@
       <c r="J228" s="3">
         <v>48</v>
       </c>
-      <c r="K228" s="5">
+      <c r="K228" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="18" customHeight="1">
+    <row r="229" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B229" s="3">
         <v>2</v>
@@ -14463,13 +14514,13 @@
       <c r="J229" s="3">
         <v>35</v>
       </c>
-      <c r="K229" s="5">
+      <c r="K229" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="18" customHeight="1">
+    <row r="230" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B230" s="3">
         <v>2</v>
@@ -14499,13 +14550,13 @@
       <c r="J230" s="3">
         <v>41.5</v>
       </c>
-      <c r="K230" s="5">
+      <c r="K230" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="18" customHeight="1">
+    <row r="231" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B231" s="3">
         <v>3</v>
@@ -14535,13 +14586,13 @@
       <c r="J231" s="3">
         <v>49</v>
       </c>
-      <c r="K231" s="5">
+      <c r="K231" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="18" customHeight="1">
+    <row r="232" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B232" s="3">
         <v>3</v>
@@ -14571,13 +14622,13 @@
       <c r="J232" s="3">
         <v>49</v>
       </c>
-      <c r="K232" s="5">
+      <c r="K232" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="18" customHeight="1">
+    <row r="233" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B233" s="3">
         <v>3</v>
@@ -14607,13 +14658,13 @@
       <c r="J233" s="3">
         <v>48</v>
       </c>
-      <c r="K233" s="5">
+      <c r="K233" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="18" customHeight="1">
+    <row r="234" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B234" s="3">
         <v>3</v>
@@ -14643,13 +14694,13 @@
       <c r="J234" s="3">
         <v>38</v>
       </c>
-      <c r="K234" s="5">
+      <c r="K234" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="18" customHeight="1">
+    <row r="235" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B235" s="3">
         <v>3</v>
@@ -14679,13 +14730,13 @@
       <c r="J235" s="3">
         <v>39</v>
       </c>
-      <c r="K235" s="5">
+      <c r="K235" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="18" customHeight="1">
+    <row r="236" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B236" s="3">
         <v>3</v>
@@ -14715,13 +14766,13 @@
       <c r="J236" s="3">
         <v>47</v>
       </c>
-      <c r="K236" s="5">
+      <c r="K236" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="18" customHeight="1">
+    <row r="237" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B237" s="3">
         <v>3</v>
@@ -14751,13 +14802,13 @@
       <c r="J237" s="3">
         <v>42</v>
       </c>
-      <c r="K237" s="5">
+      <c r="K237" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="18" customHeight="1">
+    <row r="238" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B238" s="3">
         <v>3</v>
@@ -14787,13 +14838,13 @@
       <c r="J238" s="3">
         <v>48</v>
       </c>
-      <c r="K238" s="5">
+      <c r="K238" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="18" customHeight="1">
+    <row r="239" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B239" s="3">
         <v>3</v>
@@ -14823,13 +14874,13 @@
       <c r="J239" s="3">
         <v>54</v>
       </c>
-      <c r="K239" s="5">
+      <c r="K239" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="18" customHeight="1">
+    <row r="240" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B240" s="3">
         <v>4</v>
@@ -14859,13 +14910,13 @@
       <c r="J240" s="3">
         <v>48</v>
       </c>
-      <c r="K240" s="5">
+      <c r="K240" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="18" customHeight="1">
+    <row r="241" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B241" s="3">
         <v>4</v>
@@ -14895,13 +14946,13 @@
       <c r="J241" s="3">
         <v>42</v>
       </c>
-      <c r="K241" s="5">
+      <c r="K241" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="18" customHeight="1">
+    <row r="242" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B242" s="3">
         <v>4</v>
@@ -14931,13 +14982,13 @@
       <c r="J242" s="3">
         <v>40</v>
       </c>
-      <c r="K242" s="5">
+      <c r="K242" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="18" customHeight="1">
+    <row r="243" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B243" s="3">
         <v>4</v>
@@ -14967,13 +15018,13 @@
       <c r="J243" s="3">
         <v>50</v>
       </c>
-      <c r="K243" s="5">
+      <c r="K243" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="18" customHeight="1">
+    <row r="244" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B244" s="3">
         <v>4</v>
@@ -15003,13 +15054,13 @@
       <c r="J244" s="3">
         <v>43</v>
       </c>
-      <c r="K244" s="5">
+      <c r="K244" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="18" customHeight="1">
+    <row r="245" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B245" s="3">
         <v>5</v>
@@ -15039,13 +15090,13 @@
       <c r="J245" s="3">
         <v>45</v>
       </c>
-      <c r="K245" s="5">
+      <c r="K245" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="18" customHeight="1">
+    <row r="246" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B246" s="3">
         <v>5</v>
@@ -15075,13 +15126,13 @@
       <c r="J246" s="3">
         <v>45</v>
       </c>
-      <c r="K246" s="5">
+      <c r="K246" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="18" customHeight="1">
+    <row r="247" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B247" s="3">
         <v>5</v>
@@ -15111,13 +15162,13 @@
       <c r="J247" s="3">
         <v>41</v>
       </c>
-      <c r="K247" s="5">
+      <c r="K247" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="18" customHeight="1">
+    <row r="248" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B248" s="3">
         <v>5</v>
@@ -15147,13 +15198,13 @@
       <c r="J248" s="3">
         <v>44.5</v>
       </c>
-      <c r="K248" s="5">
+      <c r="K248" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="18" customHeight="1">
+    <row r="249" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B249" s="3">
         <v>5</v>
@@ -15183,13 +15234,13 @@
       <c r="J249" s="3">
         <v>45</v>
       </c>
-      <c r="K249" s="5">
+      <c r="K249" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="18" customHeight="1">
+    <row r="250" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B250" s="3">
         <v>5</v>
@@ -15219,13 +15270,13 @@
       <c r="J250" s="3">
         <v>45</v>
       </c>
-      <c r="K250" s="5">
+      <c r="K250" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="18" customHeight="1">
+    <row r="251" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B251" s="3">
         <v>5</v>
@@ -15255,13 +15306,13 @@
       <c r="J251" s="3">
         <v>42.5</v>
       </c>
-      <c r="K251" s="5">
+      <c r="K251" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="18" customHeight="1">
+    <row r="252" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B252" s="3">
         <v>5</v>
@@ -15291,13 +15342,13 @@
       <c r="J252" s="3">
         <v>45</v>
       </c>
-      <c r="K252" s="5">
+      <c r="K252" s="4">
         <v>56</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="18" customHeight="1">
+    <row r="253" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B253" s="3">
         <v>5</v>
@@ -15327,13 +15378,13 @@
       <c r="J253" s="3">
         <v>48</v>
       </c>
-      <c r="K253" s="5">
+      <c r="K253" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="18" customHeight="1">
+    <row r="254" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B254" s="3">
         <v>5</v>
@@ -15363,13 +15414,13 @@
       <c r="J254" s="3">
         <v>51</v>
       </c>
-      <c r="K254" s="5">
+      <c r="K254" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="18" customHeight="1">
+    <row r="255" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B255" s="3">
         <v>5</v>
@@ -15399,13 +15450,13 @@
       <c r="J255" s="3">
         <v>47</v>
       </c>
-      <c r="K255" s="5">
+      <c r="K255" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="18" customHeight="1">
+    <row r="256" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B256" s="3">
         <v>6</v>
@@ -15435,13 +15486,13 @@
       <c r="J256" s="3">
         <v>47</v>
       </c>
-      <c r="K256" s="5">
+      <c r="K256" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="257" spans="1:11" ht="18" customHeight="1">
+    <row r="257" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B257" s="3">
         <v>6</v>
@@ -15471,13 +15522,13 @@
       <c r="J257" s="3">
         <v>43</v>
       </c>
-      <c r="K257" s="5">
+      <c r="K257" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="18" customHeight="1">
+    <row r="258" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B258" s="3">
         <v>6</v>
@@ -15507,13 +15558,13 @@
       <c r="J258" s="3">
         <v>51</v>
       </c>
-      <c r="K258" s="5">
+      <c r="K258" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="18" customHeight="1">
+    <row r="259" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B259" s="3">
         <v>7</v>
@@ -15543,13 +15594,13 @@
       <c r="J259" s="3">
         <v>48</v>
       </c>
-      <c r="K259" s="5">
+      <c r="K259" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="18" customHeight="1">
+    <row r="260" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B260" s="3">
         <v>7</v>
@@ -15579,13 +15630,13 @@
       <c r="J260" s="3">
         <v>44</v>
       </c>
-      <c r="K260" s="5">
+      <c r="K260" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="18" customHeight="1">
+    <row r="261" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B261" s="3">
         <v>1</v>
@@ -15615,13 +15666,13 @@
       <c r="J261" s="3">
         <v>38</v>
       </c>
-      <c r="K261" s="5">
+      <c r="K261" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="18" customHeight="1">
+    <row r="262" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B262" s="3">
         <v>1</v>
@@ -15651,13 +15702,13 @@
       <c r="J262" s="3">
         <v>50</v>
       </c>
-      <c r="K262" s="5">
+      <c r="K262" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="18" customHeight="1">
+    <row r="263" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B263" s="3">
         <v>1</v>
@@ -15687,13 +15738,13 @@
       <c r="J263" s="3">
         <v>45</v>
       </c>
-      <c r="K263" s="5">
+      <c r="K263" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="18" customHeight="1">
+    <row r="264" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B264" s="3">
         <v>1</v>
@@ -15723,13 +15774,13 @@
       <c r="J264" s="3">
         <v>43</v>
       </c>
-      <c r="K264" s="5">
+      <c r="K264" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="18" customHeight="1">
+    <row r="265" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B265" s="3">
         <v>1</v>
@@ -15759,13 +15810,13 @@
       <c r="J265" s="3">
         <v>49</v>
       </c>
-      <c r="K265" s="5">
+      <c r="K265" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="18" customHeight="1">
+    <row r="266" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B266" s="3">
         <v>1</v>
@@ -15795,13 +15846,13 @@
       <c r="J266" s="3">
         <v>47</v>
       </c>
-      <c r="K266" s="5">
+      <c r="K266" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="18" customHeight="1">
+    <row r="267" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B267" s="3">
         <v>1</v>
@@ -15831,13 +15882,13 @@
       <c r="J267" s="3">
         <v>53</v>
       </c>
-      <c r="K267" s="5">
+      <c r="K267" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="18" customHeight="1">
+    <row r="268" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B268" s="3">
         <v>1</v>
@@ -15867,13 +15918,13 @@
       <c r="J268" s="3">
         <v>37</v>
       </c>
-      <c r="K268" s="5">
+      <c r="K268" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="18" customHeight="1">
+    <row r="269" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B269" s="3">
         <v>1</v>
@@ -15903,13 +15954,13 @@
       <c r="J269" s="3">
         <v>45</v>
       </c>
-      <c r="K269" s="5">
+      <c r="K269" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="18" customHeight="1">
+    <row r="270" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B270" s="3">
         <v>1</v>
@@ -15939,13 +15990,13 @@
       <c r="J270" s="3">
         <v>40</v>
       </c>
-      <c r="K270" s="5">
+      <c r="K270" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="18" customHeight="1">
+    <row r="271" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B271" s="3">
         <v>1</v>
@@ -15975,13 +16026,13 @@
       <c r="J271" s="3">
         <v>47.5</v>
       </c>
-      <c r="K271" s="5">
+      <c r="K271" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="18" customHeight="1">
+    <row r="272" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B272" s="3">
         <v>2</v>
@@ -16011,13 +16062,13 @@
       <c r="J272" s="3">
         <v>50</v>
       </c>
-      <c r="K272" s="5">
+      <c r="K272" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="18" customHeight="1">
+    <row r="273" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B273" s="3">
         <v>2</v>
@@ -16047,13 +16098,13 @@
       <c r="J273" s="3">
         <v>38.5</v>
       </c>
-      <c r="K273" s="5">
+      <c r="K273" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="18" customHeight="1">
+    <row r="274" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B274" s="3">
         <v>2</v>
@@ -16083,13 +16134,13 @@
       <c r="J274" s="3">
         <v>44</v>
       </c>
-      <c r="K274" s="5">
+      <c r="K274" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="18" customHeight="1">
+    <row r="275" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B275" s="3">
         <v>2</v>
@@ -16119,13 +16170,13 @@
       <c r="J275" s="3">
         <v>39.5</v>
       </c>
-      <c r="K275" s="5">
+      <c r="K275" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="18" customHeight="1">
+    <row r="276" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B276" s="3">
         <v>2</v>
@@ -16155,13 +16206,13 @@
       <c r="J276" s="3">
         <v>38.5</v>
       </c>
-      <c r="K276" s="5">
+      <c r="K276" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="18" customHeight="1">
+    <row r="277" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B277" s="3">
         <v>2</v>
@@ -16191,13 +16242,13 @@
       <c r="J277" s="3">
         <v>42</v>
       </c>
-      <c r="K277" s="5">
+      <c r="K277" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="18" customHeight="1">
+    <row r="278" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B278" s="3">
         <v>2</v>
@@ -16227,13 +16278,13 @@
       <c r="J278" s="3">
         <v>42</v>
       </c>
-      <c r="K278" s="5">
+      <c r="K278" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="18" customHeight="1">
+    <row r="279" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B279" s="3">
         <v>3</v>
@@ -16263,13 +16314,13 @@
       <c r="J279" s="3">
         <v>45</v>
       </c>
-      <c r="K279" s="5">
+      <c r="K279" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="18" customHeight="1">
+    <row r="280" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B280" s="3">
         <v>3</v>
@@ -16299,13 +16350,13 @@
       <c r="J280" s="3">
         <v>47</v>
       </c>
-      <c r="K280" s="5">
+      <c r="K280" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="18" customHeight="1">
+    <row r="281" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B281" s="3">
         <v>3</v>
@@ -16335,13 +16386,13 @@
       <c r="J281" s="3">
         <v>47</v>
       </c>
-      <c r="K281" s="5">
+      <c r="K281" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="18" customHeight="1">
+    <row r="282" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B282" s="3">
         <v>3</v>
@@ -16371,13 +16422,13 @@
       <c r="J282" s="3">
         <v>48</v>
       </c>
-      <c r="K282" s="5">
+      <c r="K282" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="18" customHeight="1">
+    <row r="283" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B283" s="3">
         <v>3</v>
@@ -16407,13 +16458,13 @@
       <c r="J283" s="3">
         <v>48.5</v>
       </c>
-      <c r="K283" s="5">
+      <c r="K283" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="18" customHeight="1">
+    <row r="284" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B284" s="3">
         <v>3</v>
@@ -16443,13 +16494,13 @@
       <c r="J284" s="3">
         <v>45</v>
       </c>
-      <c r="K284" s="5">
+      <c r="K284" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="18" customHeight="1">
+    <row r="285" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B285" s="3">
         <v>3</v>
@@ -16479,13 +16530,13 @@
       <c r="J285" s="3">
         <v>46</v>
       </c>
-      <c r="K285" s="5">
+      <c r="K285" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="18" customHeight="1">
+    <row r="286" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B286" s="3">
         <v>3</v>
@@ -16515,13 +16566,13 @@
       <c r="J286" s="3">
         <v>48</v>
       </c>
-      <c r="K286" s="5">
+      <c r="K286" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="18" customHeight="1">
+    <row r="287" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B287" s="3">
         <v>4</v>
@@ -16551,13 +16602,13 @@
       <c r="J287" s="3">
         <v>39.5</v>
       </c>
-      <c r="K287" s="5">
+      <c r="K287" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="18" customHeight="1">
+    <row r="288" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B288" s="3">
         <v>4</v>
@@ -16587,13 +16638,13 @@
       <c r="J288" s="3">
         <v>42</v>
       </c>
-      <c r="K288" s="5">
+      <c r="K288" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="18" customHeight="1">
+    <row r="289" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B289" s="3">
         <v>4</v>
@@ -16623,13 +16674,13 @@
       <c r="J289" s="3">
         <v>51</v>
       </c>
-      <c r="K289" s="5">
+      <c r="K289" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="18" customHeight="1">
+    <row r="290" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B290" s="3">
         <v>4</v>
@@ -16659,13 +16710,13 @@
       <c r="J290" s="3">
         <v>45</v>
       </c>
-      <c r="K290" s="5">
+      <c r="K290" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="18" customHeight="1">
+    <row r="291" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B291" s="3">
         <v>4</v>
@@ -16695,13 +16746,13 @@
       <c r="J291" s="3">
         <v>45</v>
       </c>
-      <c r="K291" s="5">
+      <c r="K291" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="18" customHeight="1">
+    <row r="292" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B292" s="3">
         <v>4</v>
@@ -16731,13 +16782,13 @@
       <c r="J292" s="3">
         <v>43</v>
       </c>
-      <c r="K292" s="5">
+      <c r="K292" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="18" customHeight="1">
+    <row r="293" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B293" s="3">
         <v>4</v>
@@ -16767,13 +16818,13 @@
       <c r="J293" s="3">
         <v>43</v>
       </c>
-      <c r="K293" s="5">
+      <c r="K293" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="18" customHeight="1">
+    <row r="294" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B294" s="3">
         <v>4</v>
@@ -16803,13 +16854,13 @@
       <c r="J294" s="3">
         <v>43</v>
       </c>
-      <c r="K294" s="5">
+      <c r="K294" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="18" customHeight="1">
+    <row r="295" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B295" s="3">
         <v>5</v>
@@ -16839,13 +16890,13 @@
       <c r="J295" s="3">
         <v>46</v>
       </c>
-      <c r="K295" s="5">
+      <c r="K295" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="18" customHeight="1">
+    <row r="296" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B296" s="3">
         <v>5</v>
@@ -16875,13 +16926,13 @@
       <c r="J296" s="3">
         <v>40</v>
       </c>
-      <c r="K296" s="5">
+      <c r="K296" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="18" customHeight="1">
+    <row r="297" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B297" s="3">
         <v>5</v>
@@ -16911,13 +16962,13 @@
       <c r="J297" s="3">
         <v>43</v>
       </c>
-      <c r="K297" s="5">
+      <c r="K297" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="18" customHeight="1">
+    <row r="298" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B298" s="3">
         <v>5</v>
@@ -16947,13 +16998,13 @@
       <c r="J298" s="3">
         <v>48</v>
       </c>
-      <c r="K298" s="5">
+      <c r="K298" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="18" customHeight="1">
+    <row r="299" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B299" s="3">
         <v>5</v>
@@ -16983,13 +17034,13 @@
       <c r="J299" s="3">
         <v>46</v>
       </c>
-      <c r="K299" s="5">
+      <c r="K299" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="18" customHeight="1">
+    <row r="300" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B300" s="3">
         <v>5</v>
@@ -17019,13 +17070,13 @@
       <c r="J300" s="3">
         <v>43.5</v>
       </c>
-      <c r="K300" s="5">
+      <c r="K300" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="18" customHeight="1">
+    <row r="301" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B301" s="3">
         <v>6</v>
@@ -17055,13 +17106,13 @@
       <c r="J301" s="3">
         <v>43</v>
       </c>
-      <c r="K301" s="5">
+      <c r="K301" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="18" customHeight="1">
+    <row r="302" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B302" s="3">
         <v>6</v>
@@ -17091,13 +17142,13 @@
       <c r="J302" s="3">
         <v>47.5</v>
       </c>
-      <c r="K302" s="5">
+      <c r="K302" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="18" customHeight="1">
+    <row r="303" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B303" s="3">
         <v>6</v>
@@ -17127,13 +17178,13 @@
       <c r="J303" s="3">
         <v>45</v>
       </c>
-      <c r="K303" s="5">
+      <c r="K303" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="18" customHeight="1">
+    <row r="304" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B304" s="3">
         <v>6</v>
@@ -17163,13 +17214,13 @@
       <c r="J304" s="3">
         <v>42</v>
       </c>
-      <c r="K304" s="5">
+      <c r="K304" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="18" customHeight="1">
+    <row r="305" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B305" s="3">
         <v>6</v>
@@ -17199,13 +17250,13 @@
       <c r="J305" s="3">
         <v>44</v>
       </c>
-      <c r="K305" s="5">
+      <c r="K305" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="18" customHeight="1">
+    <row r="306" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B306" s="3">
         <v>6</v>
@@ -17235,13 +17286,13 @@
       <c r="J306" s="3">
         <v>49</v>
       </c>
-      <c r="K306" s="5">
+      <c r="K306" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="18" customHeight="1">
+    <row r="307" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B307" s="3">
         <v>6</v>
@@ -17271,13 +17322,13 @@
       <c r="J307" s="3">
         <v>41</v>
       </c>
-      <c r="K307" s="5">
+      <c r="K307" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="18" customHeight="1">
+    <row r="308" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B308" s="3">
         <v>7</v>
@@ -17307,13 +17358,13 @@
       <c r="J308" s="3">
         <v>45</v>
       </c>
-      <c r="K308" s="5">
+      <c r="K308" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="18" customHeight="1">
+    <row r="309" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B309" s="3">
         <v>7</v>
@@ -17343,13 +17394,13 @@
       <c r="J309" s="3">
         <v>42</v>
       </c>
-      <c r="K309" s="5">
+      <c r="K309" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="18" customHeight="1">
+    <row r="310" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B310" s="3">
         <v>7</v>
@@ -17379,13 +17430,13 @@
       <c r="J310" s="3">
         <v>46</v>
       </c>
-      <c r="K310" s="5">
+      <c r="K310" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="18" customHeight="1">
+    <row r="311" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B311" s="3">
         <v>7</v>
@@ -17415,13 +17466,13 @@
       <c r="J311" s="3">
         <v>52</v>
       </c>
-      <c r="K311" s="5">
+      <c r="K311" s="4">
         <v>56</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="18" customHeight="1">
+    <row r="312" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="3" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B312" s="3">
         <v>1</v>
@@ -17451,13 +17502,13 @@
       <c r="J312" s="3">
         <v>44</v>
       </c>
-      <c r="K312" s="5">
+      <c r="K312" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="18" customHeight="1">
+    <row r="313" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B313" s="3">
         <v>1</v>
@@ -17487,13 +17538,13 @@
       <c r="J313" s="3">
         <v>45.5</v>
       </c>
-      <c r="K313" s="5">
+      <c r="K313" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="18" customHeight="1">
+    <row r="314" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B314" s="3">
         <v>1</v>
@@ -17523,13 +17574,13 @@
       <c r="J314" s="3">
         <v>50</v>
       </c>
-      <c r="K314" s="5">
+      <c r="K314" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="18" customHeight="1">
+    <row r="315" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B315" s="3">
         <v>1</v>
@@ -17559,13 +17610,13 @@
       <c r="J315" s="3">
         <v>44</v>
       </c>
-      <c r="K315" s="5">
+      <c r="K315" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="18" customHeight="1">
+    <row r="316" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B316" s="3">
         <v>1</v>
@@ -17595,13 +17646,13 @@
       <c r="J316" s="3">
         <v>40</v>
       </c>
-      <c r="K316" s="5">
+      <c r="K316" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="18" customHeight="1">
+    <row r="317" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="3" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B317" s="3">
         <v>1</v>
@@ -17631,13 +17682,13 @@
       <c r="J317" s="3">
         <v>44</v>
       </c>
-      <c r="K317" s="5">
+      <c r="K317" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="18" customHeight="1">
+    <row r="318" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B318" s="3">
         <v>2</v>
@@ -17667,13 +17718,13 @@
       <c r="J318" s="3">
         <v>40</v>
       </c>
-      <c r="K318" s="5">
+      <c r="K318" s="4">
         <v>56</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="18" customHeight="1">
+    <row r="319" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B319" s="3">
         <v>2</v>
@@ -17703,13 +17754,13 @@
       <c r="J319" s="3">
         <v>43</v>
       </c>
-      <c r="K319" s="5">
+      <c r="K319" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="18" customHeight="1">
+    <row r="320" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B320" s="3">
         <v>3</v>
@@ -17739,13 +17790,13 @@
       <c r="J320" s="3">
         <v>53</v>
       </c>
-      <c r="K320" s="5">
+      <c r="K320" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="321" spans="1:11" ht="18" customHeight="1">
+    <row r="321" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B321" s="3">
         <v>3</v>
@@ -17775,13 +17826,13 @@
       <c r="J321" s="3">
         <v>56</v>
       </c>
-      <c r="K321" s="5">
+      <c r="K321" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="322" spans="1:11" ht="18" customHeight="1">
+    <row r="322" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B322" s="3">
         <v>4</v>
@@ -17811,13 +17862,13 @@
       <c r="J322" s="3">
         <v>45</v>
       </c>
-      <c r="K322" s="5">
+      <c r="K322" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="323" spans="1:11" ht="18" customHeight="1">
+    <row r="323" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B323" s="3">
         <v>4</v>
@@ -17847,13 +17898,13 @@
       <c r="J323" s="3">
         <v>47</v>
       </c>
-      <c r="K323" s="5">
+      <c r="K323" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="324" spans="1:11" ht="18" customHeight="1">
+    <row r="324" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B324" s="3">
         <v>5</v>
@@ -17883,13 +17934,13 @@
       <c r="J324" s="3">
         <v>41</v>
       </c>
-      <c r="K324" s="5">
+      <c r="K324" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="325" spans="1:11" ht="18" customHeight="1">
+    <row r="325" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B325" s="3">
         <v>5</v>
@@ -17919,13 +17970,13 @@
       <c r="J325" s="3">
         <v>41</v>
       </c>
-      <c r="K325" s="5">
+      <c r="K325" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="326" spans="1:11" ht="18" customHeight="1">
+    <row r="326" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B326" s="3">
         <v>5</v>
@@ -17955,13 +18006,13 @@
       <c r="J326" s="3">
         <v>43</v>
       </c>
-      <c r="K326" s="5">
+      <c r="K326" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="327" spans="1:11" ht="18" customHeight="1">
+    <row r="327" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="3" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B327" s="3">
         <v>6</v>
@@ -17991,13 +18042,13 @@
       <c r="J327" s="3">
         <v>45</v>
       </c>
-      <c r="K327" s="5">
+      <c r="K327" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="328" spans="1:11" ht="18" customHeight="1">
+    <row r="328" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B328" s="3">
         <v>6</v>
@@ -18027,13 +18078,13 @@
       <c r="J328" s="3">
         <v>49</v>
       </c>
-      <c r="K328" s="5">
+      <c r="K328" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="329" spans="1:11" ht="18" customHeight="1">
+    <row r="329" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B329" s="3">
         <v>6</v>
@@ -18063,13 +18114,13 @@
       <c r="J329" s="3">
         <v>46</v>
       </c>
-      <c r="K329" s="5">
+      <c r="K329" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="330" spans="1:11" ht="18" customHeight="1">
+    <row r="330" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B330" s="3">
         <v>6</v>
@@ -18099,13 +18150,13 @@
       <c r="J330" s="3">
         <v>49</v>
       </c>
-      <c r="K330" s="5">
+      <c r="K330" s="4">
         <v>58</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="18" customHeight="1">
+    <row r="331" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B331" s="3">
         <v>6</v>
@@ -18135,13 +18186,13 @@
       <c r="J331" s="3">
         <v>46</v>
       </c>
-      <c r="K331" s="5">
+      <c r="K331" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="332" spans="1:11" ht="18" customHeight="1">
+    <row r="332" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B332" s="3">
         <v>6</v>
@@ -18171,13 +18222,13 @@
       <c r="J332" s="3">
         <v>52</v>
       </c>
-      <c r="K332" s="5">
+      <c r="K332" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="18" customHeight="1">
+    <row r="333" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B333" s="3">
         <v>6</v>
@@ -18207,109 +18258,109 @@
       <c r="J333" s="3">
         <v>51.5</v>
       </c>
-      <c r="K333" s="5">
+      <c r="K333" s="4">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K333">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K333">
     <sortCondition ref="I1"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.78515625" customWidth="1"/>
+    <col min="2" max="2" width="14.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
-        <v>14</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>344</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="9">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="2">
         <v>82.625</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="9">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="10">
-        <v>83.708333333333329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="9">
+      <c r="B5" s="2">
+        <v>83.7083333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="10">
-        <v>84.714285714285708</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="9">
+      <c r="B6" s="2">
+        <v>84.714285714285694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="10">
-        <v>83.489583333333329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="9">
+      <c r="B7" s="2">
+        <v>83.4895833333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="10">
-        <v>85.051020408163268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="9">
+      <c r="B8" s="2">
+        <v>85.051020408163296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="10">
-        <v>85.597826086956516</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="9">
+      <c r="B9" s="2">
+        <v>85.597826086956502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="10">
-        <v>84.443181818181813</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="10">
-        <v>84.225903614457835</v>
+      <c r="B10" s="2">
+        <v>84.443181818181799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B11" s="2">
+        <v>84.225903614457806</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>